--- a/Internacional/Inputs/Venta - Plan.xlsx
+++ b/Internacional/Inputs/Venta - Plan.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsilva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Proyecciones/Proyecciones-S-OP/Internacional/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AABAE841-402E-4BFE-9D7B-0BF6A45D49E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100AC25-43D8-0640-A055-EBCD93E3A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0ANALYSIS_PATTERN (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="Venta - Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2581,12 +2581,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="#,##0&quot; KG&quot;;\-#,##0&quot; KG&quot;;#,##0&quot; KG&quot;;@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00%;\-#,##0.00%;#,##0.00%;@"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00;\-#,##0.00;#,##0.00;@"/>
-    <numFmt numFmtId="171" formatCode="#,##0;\-#,##0;#,##0;@"/>
+    <numFmt numFmtId="164" formatCode="#,##0&quot; KG&quot;;\-#,##0&quot; KG&quot;;#,##0&quot; KG&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00%;\-#,##0.00%;#,##0.00%;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\-#,##0.00;#,##0.00;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;#,##0;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -3181,40 +3181,40 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3357,7 +3357,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3645,49 +3645,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L454"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>-9.3861318407960206E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>0.8298382687525353</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0.70858392564242745</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>1.7699460376194881E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1.0681582604738529E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>6.4447811573543845E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>-0.13716435333194155</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>-2.0517718304459004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>-5.306210866090272E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>-4.8544490290779993E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>-0.29807264953911927</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>4.2183622828784122E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>-1.6737262383684486E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>5.9320218227506008E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0.11108701357772284</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>8.6896647501928381E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1.8192623815339877E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>3.5352385870831129E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>-5.9452398991534011E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>0.6534683151378331</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>0.29883977044467014</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>0.13525501909119883</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0.16101799585032281</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>9.84436382944366E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>1.2150784272338065E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>-0.16001446287638005</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0.13838925575432393</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.13357404556747457</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>1.6154958910500096E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0.23101157988885423</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>-0.22863548528180694</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>-0.2602701081936229</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>-0.25275023916504424</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>9.2900836595143851E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>-9.9053967277869234E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>-0.1395453211410021</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>8.8505218371496164E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>-3.6882153740191902E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>-6.6819330381142489E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>-1.7907464128250741E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>3.3987309565899501E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>1.4760147601476014E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0.1447088335569614</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>6.2943916874321285E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>-0.11057585698911493</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>-3.8710459409948814E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0.16323918184564384</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>4.0137396716364076E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>2.5253510010484495E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>-2.8343996032585365E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>1.446609745033762E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>5.2298375754220673E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>-0.14375550830640335</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>3.0571155491580061E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>-3.8533793677136836E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0.20347178716668068</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>8.1081960152181567E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>2.5662633200092391E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>-0.16673096404640539</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>-5.5813903742811012E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>11</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>-9.4742747319160273E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>8.4264045374517083E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>-3.3377533773979923E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>11</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>8.6230467176420744E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>-3.7743645166144771E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>-0.33621720243371245</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>-0.73521151586713318</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>11</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>11</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>-4.6611093879117401E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>0.29337976204117389</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>11</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>-0.15011830339223711</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>4.6659709636158869E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>-0.11584770959790389</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>0.13501562818503776</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>-2.8104628389927399E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>0.10684224210958419</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>9.9658893674755333E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>11</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>11</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>11</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>-7.43899789738416E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>11</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>6.0471223150513564E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>11</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>-9.291135401169609E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>11</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>9.037628623658972E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>8.7025180186292281E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>11</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>9.0037133415207152E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>11</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>8.3952361426828215E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>4.8584226708787003E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>6.3515719483161329E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>11</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>-3.5654609106345561E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>8.0021890956505179E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>8.4974527440236314E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>6.5272901378110593E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>9.5462887573611294E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>11</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>8.1957046822786483E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>11</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>7.6640568649896004E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>11</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>7.759254930562394E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>11</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>9.0637594262784268E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>11</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>9.0602773161488626E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>11</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>9.4247416952248905E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>9.7191112988383774E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>8.7583496572179911E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>11</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>-7.8748511569044194E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>11</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>8.396299505712948E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>11</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>11</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>-0.34806040035343017</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>11</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>-4.529710587008659E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>11</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>3.6069864967378476E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>11</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>2.1037478523614605E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>11</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>-5.1065161646526261E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>11</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>-1.3631534756557886E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>11</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>0.19520188054982882</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>11</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>1.674473532498244E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>11</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>0.21735236086447185</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>11</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>-9.5717346706847527E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>11</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>0.12025108428958346</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>11</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>-4.3538832039218794E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>11</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>9.3953779534329179E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>11</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>9.3837170272421971E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>11</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>2.4658785868046755E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>11</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>11</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>9.8261421965919873E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>11</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>11</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>-0.11270262671122412</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>11</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>-0.10346479100284127</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>11</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>-5.9733738676567373E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>11</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>11</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>-4.5355039884520275E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>11</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>11</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>3.5496230867629375E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>11</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>1.5985422661359723E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>11</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0.14701529606067976</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>11</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>-2.4001232049527879E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>11</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>-4.4995647356813988E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>11</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>7.9697598089721419E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>11</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>0.92111740946833776</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>11</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>4.0313018733696944E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>11</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>11</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>6.5191006912067251E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>11</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>11</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>-7.2543303571428575E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>11</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>-3.5835976028803139E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>11</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>-9.9490624999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>11</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>-1.7443946098647804E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>11</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>-4.9773145973422642E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>11</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>11</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>-9.8484093915701138E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>11</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>-0.31105486869256954</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>11</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>11</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>-3.5350643538025655E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>11</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>0.10512147941792105</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>11</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>0.34749556675447235</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>11</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>11</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>3.1421484915512485E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>11</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>11</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>11</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>0.10570998145291527</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>11</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>-4.532782313615318E-5</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>11</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>-2.010298799608615E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>11</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>-2.0333372020237189E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>11</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>-3.0911237524329765E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>11</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>-7.345154882168059E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>11</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>-6.9445915074964046E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>11</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>-3.9366502507784132E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>11</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>11</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>3.2032207079755633E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>11</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>2.3117013102559487E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>11</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>0.12809216771486701</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>11</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>1.5882440551563824E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>11</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>7.7088836166573381E-6</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>11</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>-3.3054015362033701E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>11</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>11</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>-8.4156811945081643E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>11</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>8.849366042066556E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>11</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>8.8550466111506576E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>11</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>-1.1365166918126023E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>11</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>2.1557876329042554E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>11</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>1.9748020519240933E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>11</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>6.1720379841367745E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>11</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>2.1598352825164851E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>11</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>11</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>11</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>11</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>2.473548984514537E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>11</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>-1.59674193449625E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>11</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>1.2572103284527108E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>11</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>-9.9207138335628883E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>11</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>-0.1273317027679586</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>11</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>11</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>-5.9814745980156354E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>11</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>-0.4578958221240727</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>11</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>-9.3848327436441021E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>11</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>11</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>-3.5393355842547887E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>11</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>1.6307510792793217E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>11</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>0.10191140957080837</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>11</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>-0.16611576472983355</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>11</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>-9.5014782850552079E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>11</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>2.127033720698902E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>11</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>2.4557687246517919E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>11</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>1.8911205072591551E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>11</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>11</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>11</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>2.2156488843515731E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>11</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>-4.6943568034730713E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>11</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>-1.7717537123560161E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>11</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>6.8754686063956308E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>11</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>7.0611248622972026E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>11</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>-1.4452792080298841E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>11</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>4.4203607241328123E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>11</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>-9.0684946456997886E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>11</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>-1.1950957545575123E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>11</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>-1.1797503596340901E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>11</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>11</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>3.2234077156230598E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>11</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>-4.9174020666858248E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>11</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>6.3070927011531275E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>11</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>1.422642709308344E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>11</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>0.10761578548094575</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>11</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>8.3296941216253431E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>11</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>5.3652456131887148E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>11</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>9.0907416594068702E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>11</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>0.10771180507146574</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>11</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>-5.1529492875128084E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>11</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>-3.8068695236678642E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>11</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>-3.2903094283387231E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>11</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>-0.27788194088163209</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>11</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>-6.8896946788365637E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>11</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>11</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>2.4735487776122538E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>11</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>3.3504621964492741E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>11</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>-9.6686274915939996E-4</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>11</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>11</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>-0.1284991549965929</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>11</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>-3.1322217708116031E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>11</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>11</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>11</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>7.6404659479326606E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>11</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>-2.1056312081178023E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>11</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>-7.4634145137080068E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>11</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>2.4161250093974396E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>11</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>1.3322251981196994E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>11</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>11</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>8.3734324892969447E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>11</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>0.10052735543725948</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>11</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>-1.8528962979454781E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>11</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>-0.57419724228428559</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>11</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>8.352687452490748E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>11</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>-7.0410916151880491E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>11</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>1.2092994864985416E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>11</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>-3.334270789869026E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>11</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>-6.1200492941559215E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>11</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>-0.14494723780322866</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>11</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>-0.13981658843569725</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>11</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>8.1299472406290554E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>11</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>-1.8670042879560828E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>11</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>11</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>-6.5715208632921625E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>11</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>5.9027502548193375E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>11</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>-2.6429277126706244E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>11</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>1.5676252833039538E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>11</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>11</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>11</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>11</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>11</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>5.2212447878548181E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>11</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>0.41995041725802351</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>11</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>11</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>-7.604392244013862E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>11</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>3.4488178533124705E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>11</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>4.9314903693318174E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>11</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>0.11465130005440229</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>11</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>7.580598427592293E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>11</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>11</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>11</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>6.6656980311249761E-4</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>11</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>2.1374329765456142E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>11</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>11</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>0.1167590027700831</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>11</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>9.1459076675105208E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>11</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>11</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>11</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>-9.9992124812567126E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>11</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>-8.5590210880688217E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>11</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>-3.0761098848122476E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>11</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>7.7383353201142105E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>11</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>11</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>11</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>-9.8021032687824208E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>11</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>2.3086402556217477E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>11</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>-9.3992804304555866E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>11</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>8.5412969432846528E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>11</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>2.2887351492725149E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>11</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>2.6172941027742371E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>11</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>11</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>3.0703726554441226E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>11</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>1.1185643588753793E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>11</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>11</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>1.4880011698217323E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>11</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>-1.8931098143445391E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>11</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>11</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>-5.6080782552018815E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>11</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>11</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>-4.8170100459920165E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>11</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>2.1071438730943595E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>11</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>11</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>1.5342084260074102E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>11</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>-1.2258403229234288E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>11</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>11</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>11</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>4.4898371343623032E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>11</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>11</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>8.4089055095820917E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>11</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>3.2827333540807113E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>11</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>5.6439896285739806E-5</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>11</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>8.6575848089404245E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>11</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>1.0362998697964698E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>11</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>9.1149669037486822E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>11</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>11</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>1.8472572738872844E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>11</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>8.1427372799631442E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>11</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>9.6510556890214427E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>11</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>3.8494184604961207E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>11</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>-8.3013832409461974E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>11</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>-5.2601698276414036E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>11</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>2.7407972574768361E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>11</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>-4.4026831019404265E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>11</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>-5.0778445211117143E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>11</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>11</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>11</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>11</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>11</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>0.17075607336641685</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>11</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>11</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>1.400441533216388E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>11</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>7.4820092216807826E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>11</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>7.8128204408610666E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>11</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>11</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>7.3431165134855994E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>11</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>-0.1537490647387085</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>11</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>-0.28585273013926416</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>11</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>11</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>-5.3470069451099916E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>11</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>11</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>-3.2001971292068328E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>11</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>-0.26732410410103463</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>11</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>11</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>11</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>7.9205049918070591E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>11</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>4.7907323131588547E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>11</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>11</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
         <v>11</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>6.4349638767976516E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>11</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>11</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>0.4306852433788223</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
         <v>11</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>-4.2193755528315745E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>11</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>-1.2291761782582438E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>11</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>-2.5333301195008387E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>11</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>-0.12786631661314199</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>11</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>-1.224470464321112E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>11</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
         <v>11</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>11</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>11</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>11</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>0.10649145833333334</v>
       </c>
     </row>
-    <row r="395" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>11</v>
       </c>
@@ -18377,7 +18377,7 @@
         <v>1.0274173698606863E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>11</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="397" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>11</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>0.36402748195766826</v>
       </c>
     </row>
-    <row r="398" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>11</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>1.4686674600179956E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>11</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>-4.1938116837254791E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>11</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>0.13363641358983139</v>
       </c>
     </row>
-    <row r="401" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>11</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>-0.15577672399370066</v>
       </c>
     </row>
-    <row r="402" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>11</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>-2.3465385279042326E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>11</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>3.4225870259367165E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>11</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="405" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>11</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>0.66447206735064546</v>
       </c>
     </row>
-    <row r="406" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>11</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="407" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>11</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>-3.8523857017980966E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>11</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>-3.2498379434785549E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
         <v>11</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>-5.7025971790787284E-4</v>
       </c>
     </row>
-    <row r="410" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>11</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>-5.4443457948110695E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>11</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>2.5998297368546169E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
         <v>11</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
         <v>11</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
         <v>11</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>5.7231958224151419E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>11</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
         <v>11</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>-0.23637714658862977</v>
       </c>
     </row>
-    <row r="417" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
         <v>11</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>-4.4276770713878991E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
         <v>11</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>0.55620547307090173</v>
       </c>
     </row>
-    <row r="419" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
         <v>11</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>7.6490140413280304E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
         <v>11</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>-4.909679155083195E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
         <v>11</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>11</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>-0.22776416490156615</v>
       </c>
     </row>
-    <row r="423" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
         <v>11</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
         <v>11</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>-0.1569416512269339</v>
       </c>
     </row>
-    <row r="425" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>11</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>-7.6102595850069218E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
         <v>11</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
         <v>11</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>-1.9348645312206706E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>11</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>3.8598242254119258E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
         <v>11</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>-0.20779378987604555</v>
       </c>
     </row>
-    <row r="430" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>11</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="431" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
         <v>11</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
         <v>11</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>5.9915580763431869E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
         <v>11</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="434" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
         <v>11</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
         <v>11</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>11</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
         <v>11</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>11</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
         <v>11</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>4.2555085280634258E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>11</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
         <v>11</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>-7.8813247753480847E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
         <v>11</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>2.7451367851400583E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
         <v>11</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>4.8540152501394826E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
         <v>11</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>0.17609177479430854</v>
       </c>
     </row>
-    <row r="445" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>11</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
         <v>11</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>-4.5548630120063632E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
         <v>11</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>11</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>-2.4665979651374573E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>11</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
         <v>11</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>-1.1910204008359187E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>11</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>3.1028131304837107E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
         <v>11</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>-0.5973922778651396</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>11</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>-0.35712570844667968</v>
       </c>
     </row>
-    <row r="454" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A454" s="21" t="s">
         <v>849</v>
       </c>
@@ -20573,12 +20573,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A454:F454"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C105:F105"/>
     <mergeCell ref="C395:F395"/>
     <mergeCell ref="C446:F446"/>
     <mergeCell ref="C453:F453"/>
-    <mergeCell ref="A454:F454"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Internacional/Inputs/Venta - Plan.xlsx
+++ b/Internacional/Inputs/Venta - Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsilva\Documents\Tiara Silva\Proyecciones-S-OP\Internacional\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128F592-4A74-4E8C-83C9-8349FACC87B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C6B9B8-4969-4CF9-9B7A-562531A39E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="701" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Venta - Plan'!$A$2:$H$2908</definedName>
-    <definedName name="SAPCrosstab1">'Venta - Plan'!$A$1:$I$1193</definedName>
+    <definedName name="SAPCrosstab1">'Venta - Plan'!$A$1:$I$1204</definedName>
     <definedName name="SAPCrosstab2">#REF!</definedName>
     <definedName name="SAPCrosstab3">#REF!</definedName>
     <definedName name="SAPCrosstab4">#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8353" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8430" uniqueCount="967">
   <si>
     <t>Sector</t>
   </si>
@@ -4298,7 +4298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A0E4FE-8989-4796-83C4-98AD44AFBB63}">
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1127" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -28489,7 +28489,7 @@
         <v>886</v>
       </c>
       <c r="H843" s="2">
-        <v>8164.6559999999999</v>
+        <v>19958.047999999999</v>
       </c>
       <c r="I843" s="3">
         <v>72387.820000000007</v>
@@ -28518,7 +28518,7 @@
         <v>886</v>
       </c>
       <c r="H844" s="2">
-        <v>34835.866000000002</v>
+        <v>45812.792000000001</v>
       </c>
       <c r="I844" s="3">
         <v>117717.99</v>
@@ -28547,7 +28547,7 @@
         <v>886</v>
       </c>
       <c r="H845" s="2">
-        <v>3374.7240000000002</v>
+        <v>48933.504999999997</v>
       </c>
       <c r="I845" s="3">
         <v>397079.88</v>
@@ -28576,7 +28576,7 @@
         <v>886</v>
       </c>
       <c r="H846" s="2">
-        <v>15494.703</v>
+        <v>20937.807000000001</v>
       </c>
       <c r="I846" s="3">
         <v>183737.42</v>
@@ -28605,7 +28605,7 @@
         <v>886</v>
       </c>
       <c r="H847" s="2">
-        <v>1814.3679999999999</v>
+        <v>6531.7250000000004</v>
       </c>
       <c r="I847" s="3">
         <v>142473.25</v>
@@ -28692,7 +28692,7 @@
         <v>888</v>
       </c>
       <c r="H850" s="2">
-        <v>0</v>
+        <v>55982.324999999997</v>
       </c>
       <c r="I850" s="3">
         <v>174395.48</v>
@@ -28779,7 +28779,7 @@
         <v>888</v>
       </c>
       <c r="H853" s="2">
-        <v>10069.742</v>
+        <v>12065.547</v>
       </c>
       <c r="I853" s="3">
         <v>158328.98000000001</v>
@@ -28808,7 +28808,7 @@
         <v>887</v>
       </c>
       <c r="H854" s="2">
-        <v>3157</v>
+        <v>4535.92</v>
       </c>
       <c r="I854" s="3">
         <v>17815.28</v>
@@ -28837,7 +28837,7 @@
         <v>886</v>
       </c>
       <c r="H855" s="2">
-        <v>36.286999999999999</v>
+        <v>21772.416000000001</v>
       </c>
       <c r="I855" s="3">
         <v>110271.84</v>
@@ -28866,7 +28866,7 @@
         <v>887</v>
       </c>
       <c r="H856" s="2">
-        <v>21228.106</v>
+        <v>32114.313999999998</v>
       </c>
       <c r="I856" s="3">
         <v>74053.429999999993</v>
@@ -28895,7 +28895,7 @@
         <v>888</v>
       </c>
       <c r="H857" s="2">
-        <v>90.718000000000004</v>
+        <v>66895.748999999996</v>
       </c>
       <c r="I857" s="3">
         <v>270348.09000000003</v>
@@ -28953,7 +28953,7 @@
         <v>887</v>
       </c>
       <c r="H859" s="2">
-        <v>29937.072</v>
+        <v>58023.489000000001</v>
       </c>
       <c r="I859" s="3">
         <v>411596.98</v>
@@ -28982,7 +28982,7 @@
         <v>886</v>
       </c>
       <c r="H860" s="2">
-        <v>1977.6610000000001</v>
+        <v>26834.503000000001</v>
       </c>
       <c r="I860" s="3">
         <v>190478.45</v>
@@ -29040,7 +29040,7 @@
         <v>887</v>
       </c>
       <c r="H862" s="2">
-        <v>56245.408000000003</v>
+        <v>56227.264000000003</v>
       </c>
       <c r="I862" s="3">
         <v>236791.65</v>
@@ -29098,7 +29098,7 @@
         <v>886</v>
       </c>
       <c r="H864" s="2">
-        <v>5443.1040000000003</v>
+        <v>9180.7019999999993</v>
       </c>
       <c r="I864" s="3"/>
     </row>
@@ -29125,7 +29125,7 @@
         <v>886</v>
       </c>
       <c r="H865" s="2">
-        <v>5678.9719999999998</v>
+        <v>11122.075999999999</v>
       </c>
       <c r="I865" s="3"/>
     </row>
@@ -29170,20 +29170,18 @@
         <v>13</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="F867" s="1" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
       <c r="H867" s="2">
-        <v>0</v>
-      </c>
-      <c r="I867" s="3">
-        <v>2000</v>
-      </c>
+        <v>18143.68</v>
+      </c>
+      <c r="I867" s="3"/>
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" s="10" t="s">
@@ -29193,26 +29191,24 @@
         <v>5</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="F868" s="1" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H868" s="2">
-        <v>0</v>
-      </c>
-      <c r="I868" s="3">
-        <v>24000</v>
-      </c>
+        <v>48788.356</v>
+      </c>
+      <c r="I868" s="3"/>
     </row>
     <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" s="10" t="s">
@@ -29222,26 +29218,24 @@
         <v>5</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E869" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F869" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H869" s="2">
-        <v>0</v>
-      </c>
-      <c r="I869" s="3">
-        <v>24000</v>
-      </c>
+        <v>381.017</v>
+      </c>
+      <c r="I869" s="3"/>
     </row>
     <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" s="10" t="s">
@@ -29251,25 +29245,25 @@
         <v>5</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="F870" s="1" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="H870" s="2">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="I870" s="3">
-        <v>72000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.25">
@@ -29280,26 +29274,24 @@
         <v>5</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>46</v>
+        <v>787</v>
       </c>
       <c r="F871" s="1" t="s">
-        <v>47</v>
+        <v>788</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H871" s="2">
-        <v>0</v>
-      </c>
-      <c r="I871" s="3">
-        <v>147000</v>
-      </c>
+        <v>1251.914</v>
+      </c>
+      <c r="I871" s="3"/>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" s="10" t="s">
@@ -29309,25 +29301,25 @@
         <v>5</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E872" s="1" t="s">
-        <v>771</v>
+        <v>106</v>
       </c>
       <c r="F872" s="1" t="s">
-        <v>772</v>
+        <v>107</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="H872" s="2">
         <v>0</v>
       </c>
       <c r="I872" s="3">
-        <v>69800</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.25">
@@ -29338,25 +29330,25 @@
         <v>5</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E873" s="1" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="F873" s="1" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H873" s="2">
         <v>0</v>
       </c>
       <c r="I873" s="3">
-        <v>21000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.25">
@@ -29373,18 +29365,20 @@
         <v>9</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>938</v>
+        <v>6</v>
       </c>
       <c r="F874" s="1" t="s">
-        <v>939</v>
+        <v>7</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="H874" s="2">
-        <v>10</v>
-      </c>
-      <c r="I874" s="3"/>
+        <v>24000</v>
+      </c>
+      <c r="I874" s="3">
+        <v>72000</v>
+      </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" s="10" t="s">
@@ -29400,18 +29394,20 @@
         <v>9</v>
       </c>
       <c r="E875" s="1" t="s">
-        <v>932</v>
+        <v>46</v>
       </c>
       <c r="F875" s="1" t="s">
-        <v>933</v>
+        <v>47</v>
       </c>
       <c r="G875" s="10" t="s">
         <v>886</v>
       </c>
       <c r="H875" s="2">
-        <v>10</v>
-      </c>
-      <c r="I875" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="I875" s="3">
+        <v>147000</v>
+      </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" s="10" t="s">
@@ -29427,19 +29423,19 @@
         <v>9</v>
       </c>
       <c r="E876" s="1" t="s">
-        <v>92</v>
+        <v>771</v>
       </c>
       <c r="F876" s="1" t="s">
-        <v>93</v>
+        <v>772</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H876" s="2">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="I876" s="3">
-        <v>24000</v>
+        <v>69800</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
@@ -29456,19 +29452,19 @@
         <v>9</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F877" s="1" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H877" s="2">
         <v>0</v>
       </c>
       <c r="I877" s="3">
-        <v>20000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
@@ -29485,20 +29481,18 @@
         <v>9</v>
       </c>
       <c r="E878" s="1" t="s">
-        <v>777</v>
+        <v>938</v>
       </c>
       <c r="F878" s="1" t="s">
-        <v>778</v>
+        <v>939</v>
       </c>
       <c r="G878" s="10" t="s">
         <v>886</v>
       </c>
       <c r="H878" s="2">
-        <v>0</v>
-      </c>
-      <c r="I878" s="3">
-        <v>108000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I878" s="3"/>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" s="10" t="s">
@@ -29514,20 +29508,18 @@
         <v>9</v>
       </c>
       <c r="E879" s="1" t="s">
-        <v>169</v>
+        <v>932</v>
       </c>
       <c r="F879" s="1" t="s">
-        <v>170</v>
+        <v>933</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H879" s="2">
-        <v>0</v>
-      </c>
-      <c r="I879" s="3">
-        <v>13833</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I879" s="3"/>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" s="10" t="s">
@@ -29543,19 +29535,19 @@
         <v>9</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="F880" s="1" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="G880" s="10" t="s">
         <v>889</v>
       </c>
       <c r="H880" s="2">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="I880" s="3">
-        <v>23996</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.25">
@@ -29572,19 +29564,19 @@
         <v>9</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="F881" s="1" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H881" s="2">
         <v>0</v>
       </c>
       <c r="I881" s="3">
-        <v>10162</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
@@ -29601,19 +29593,19 @@
         <v>9</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>846</v>
+        <v>777</v>
       </c>
       <c r="F882" s="1" t="s">
-        <v>847</v>
+        <v>778</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
       <c r="H882" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I882" s="3">
-        <v>18810</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.25">
@@ -29624,16 +29616,16 @@
         <v>5</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>851</v>
+        <v>169</v>
       </c>
       <c r="F883" s="1" t="s">
-        <v>852</v>
+        <v>170</v>
       </c>
       <c r="G883" s="10" t="s">
         <v>889</v>
@@ -29642,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="I883" s="3">
-        <v>1000</v>
+        <v>13833</v>
       </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.25">
@@ -29653,25 +29645,25 @@
         <v>5</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="F884" s="1" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="G884" s="10" t="s">
         <v>889</v>
       </c>
       <c r="H884" s="2">
-        <v>0</v>
+        <v>23995.87</v>
       </c>
       <c r="I884" s="3">
-        <v>2720</v>
+        <v>23996</v>
       </c>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.25">
@@ -29682,25 +29674,25 @@
         <v>5</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="F885" s="1" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="H885" s="2">
-        <v>278370</v>
+        <v>0</v>
       </c>
       <c r="I885" s="3">
-        <v>1266138</v>
+        <v>10162</v>
       </c>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.25">
@@ -29711,25 +29703,25 @@
         <v>5</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>22</v>
+        <v>846</v>
       </c>
       <c r="F886" s="1" t="s">
-        <v>23</v>
+        <v>847</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>887</v>
+        <v>917</v>
       </c>
       <c r="H886" s="2">
-        <v>20511</v>
+        <v>15</v>
       </c>
       <c r="I886" s="3">
-        <v>40000</v>
+        <v>18810</v>
       </c>
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.25">
@@ -29740,25 +29732,25 @@
         <v>5</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>24</v>
+        <v>851</v>
       </c>
       <c r="F887" s="1" t="s">
-        <v>25</v>
+        <v>852</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H887" s="2">
         <v>0</v>
       </c>
       <c r="I887" s="3">
-        <v>40000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.25">
@@ -29769,25 +29761,25 @@
         <v>5</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>769</v>
+        <v>102</v>
       </c>
       <c r="F888" s="1" t="s">
-        <v>770</v>
+        <v>103</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="H888" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I888" s="3">
-        <v>19954</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.25">
@@ -29804,19 +29796,19 @@
         <v>21</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F889" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G889" s="10" t="s">
         <v>886</v>
       </c>
       <c r="H889" s="2">
-        <v>19954</v>
+        <v>429570</v>
       </c>
       <c r="I889" s="3">
-        <v>39908</v>
+        <v>1266138</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.25">
@@ -29833,19 +29825,19 @@
         <v>21</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F890" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H890" s="2">
-        <v>0</v>
+        <v>20511</v>
       </c>
       <c r="I890" s="3">
-        <v>224580</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="891" spans="1:9" x14ac:dyDescent="0.25">
@@ -29862,16 +29854,16 @@
         <v>21</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F891" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H891" s="2">
-        <v>40014</v>
+        <v>2970</v>
       </c>
       <c r="I891" s="3">
         <v>40000</v>
@@ -29891,19 +29883,19 @@
         <v>21</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>145</v>
+        <v>769</v>
       </c>
       <c r="F892" s="1" t="s">
-        <v>146</v>
+        <v>770</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H892" s="2">
         <v>0</v>
       </c>
       <c r="I892" s="3">
-        <v>40000</v>
+        <v>19954</v>
       </c>
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.25">
@@ -29920,19 +29912,19 @@
         <v>21</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="F893" s="1" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H893" s="2">
-        <v>19958.400000000001</v>
+        <v>39908</v>
       </c>
       <c r="I893" s="3">
-        <v>20000</v>
+        <v>39908</v>
       </c>
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.25">
@@ -29949,19 +29941,19 @@
         <v>21</v>
       </c>
       <c r="E894" s="1" t="s">
-        <v>781</v>
+        <v>46</v>
       </c>
       <c r="F894" s="1" t="s">
-        <v>782</v>
+        <v>47</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="H894" s="2">
         <v>0</v>
       </c>
       <c r="I894" s="3">
-        <v>96029</v>
+        <v>224580</v>
       </c>
     </row>
     <row r="895" spans="1:9" x14ac:dyDescent="0.25">
@@ -29972,25 +29964,25 @@
         <v>5</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F895" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H895" s="2">
-        <v>24000</v>
+        <v>78192</v>
       </c>
       <c r="I895" s="3">
-        <v>77000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.25">
@@ -30001,25 +29993,25 @@
         <v>5</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E896" s="1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F896" s="1" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H896" s="2">
-        <v>45600</v>
+        <v>39984.478999999999</v>
       </c>
       <c r="I896" s="3">
-        <v>70800</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="897" spans="1:9" x14ac:dyDescent="0.25">
@@ -30030,25 +30022,25 @@
         <v>5</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="F897" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="H897" s="2">
-        <v>455830.53</v>
+        <v>19958.400000000001</v>
       </c>
       <c r="I897" s="3">
-        <v>1104000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.25">
@@ -30059,25 +30051,25 @@
         <v>5</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D898" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E898" s="1" t="s">
-        <v>34</v>
+        <v>781</v>
       </c>
       <c r="F898" s="1" t="s">
-        <v>35</v>
+        <v>782</v>
       </c>
       <c r="G898" s="10" t="s">
         <v>891</v>
       </c>
       <c r="H898" s="2">
-        <v>24488.959999999999</v>
+        <v>0</v>
       </c>
       <c r="I898" s="3">
-        <v>25000</v>
+        <v>96029</v>
       </c>
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.25">
@@ -30094,19 +30086,19 @@
         <v>11</v>
       </c>
       <c r="E899" s="1" t="s">
-        <v>940</v>
+        <v>6</v>
       </c>
       <c r="F899" s="1" t="s">
-        <v>941</v>
+        <v>7</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="H899" s="2">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="I899" s="3">
-        <v>24000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.25">
@@ -30123,19 +30115,19 @@
         <v>11</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F900" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="H900" s="2">
-        <v>0</v>
+        <v>45600</v>
       </c>
       <c r="I900" s="3">
-        <v>50000</v>
+        <v>70800</v>
       </c>
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.25">
@@ -30152,20 +30144,18 @@
         <v>11</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F901" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="H901" s="2">
-        <v>22884.959999999999</v>
-      </c>
-      <c r="I901" s="3">
-        <v>46884.959999999999</v>
-      </c>
+        <v>24572.16</v>
+      </c>
+      <c r="I901" s="3"/>
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A902" s="10" t="s">
@@ -30181,19 +30171,19 @@
         <v>11</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>942</v>
+        <v>32</v>
       </c>
       <c r="F902" s="1" t="s">
-        <v>943</v>
+        <v>33</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="H902" s="2">
-        <v>23992.98</v>
+        <v>599445.51</v>
       </c>
       <c r="I902" s="3">
-        <v>24000</v>
+        <v>1104000</v>
       </c>
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.25">
@@ -30210,19 +30200,19 @@
         <v>11</v>
       </c>
       <c r="E903" s="1" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="F903" s="1" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="H903" s="2">
-        <v>0</v>
+        <v>24488.959999999999</v>
       </c>
       <c r="I903" s="3">
-        <v>24000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.25">
@@ -30239,19 +30229,19 @@
         <v>11</v>
       </c>
       <c r="E904" s="1" t="s">
-        <v>149</v>
+        <v>940</v>
       </c>
       <c r="F904" s="1" t="s">
-        <v>150</v>
+        <v>941</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="H904" s="2">
-        <v>0</v>
+        <v>23034.560000000001</v>
       </c>
       <c r="I904" s="3">
-        <v>120000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.25">
@@ -30268,19 +30258,19 @@
         <v>11</v>
       </c>
       <c r="E905" s="1" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="F905" s="1" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H905" s="2">
-        <v>96021.56</v>
+        <v>24996</v>
       </c>
       <c r="I905" s="3">
-        <v>313000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.25">
@@ -30297,19 +30287,19 @@
         <v>11</v>
       </c>
       <c r="E906" s="1" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="F906" s="1" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="H906" s="2">
-        <v>0</v>
+        <v>22884.959999999999</v>
       </c>
       <c r="I906" s="3">
-        <v>24000</v>
+        <v>46884.959999999999</v>
       </c>
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.25">
@@ -30320,25 +30310,25 @@
         <v>5</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E907" s="1" t="s">
-        <v>28</v>
+        <v>942</v>
       </c>
       <c r="F907" s="1" t="s">
-        <v>29</v>
+        <v>943</v>
       </c>
       <c r="G907" s="10" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="H907" s="2">
-        <v>39600</v>
+        <v>23992.98</v>
       </c>
       <c r="I907" s="3">
-        <v>59400</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.25">
@@ -30349,25 +30339,25 @@
         <v>5</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="F908" s="1" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H908" s="2">
-        <v>39908</v>
+        <v>0</v>
       </c>
       <c r="I908" s="3">
-        <v>19954</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.25">
@@ -30378,22 +30368,22 @@
         <v>5</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E909" s="1" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="F909" s="1" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="H909" s="2">
-        <v>48000</v>
+        <v>24007.18</v>
       </c>
       <c r="I909" s="3">
         <v>120000</v>
@@ -30407,25 +30397,25 @@
         <v>5</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E910" s="1" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="F910" s="1" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="H910" s="2">
-        <v>0</v>
+        <v>96021.56</v>
       </c>
       <c r="I910" s="3">
-        <v>14400</v>
+        <v>313000</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.25">
@@ -30436,25 +30426,25 @@
         <v>5</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E911" s="1" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="F911" s="1" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="H911" s="2">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="I911" s="3">
-        <v>120000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.25">
@@ -30471,19 +30461,19 @@
         <v>31</v>
       </c>
       <c r="E912" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="F912" s="1" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G912" s="10" t="s">
         <v>887</v>
       </c>
       <c r="H912" s="2">
-        <v>34500</v>
+        <v>59400</v>
       </c>
       <c r="I912" s="3">
-        <v>105000</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="913" spans="1:9" x14ac:dyDescent="0.25">
@@ -30500,18 +30490,20 @@
         <v>31</v>
       </c>
       <c r="E913" s="1" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F913" s="1" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="G913" s="10" t="s">
         <v>887</v>
       </c>
       <c r="H913" s="2">
-        <v>5634</v>
-      </c>
-      <c r="I913" s="3"/>
+        <v>39908</v>
+      </c>
+      <c r="I913" s="3">
+        <v>19954</v>
+      </c>
     </row>
     <row r="914" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A914" s="10" t="s">
@@ -30527,19 +30519,19 @@
         <v>31</v>
       </c>
       <c r="E914" s="1" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F914" s="1" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="H914" s="2">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="I914" s="3">
-        <v>71940</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="915" spans="1:9" x14ac:dyDescent="0.25">
@@ -30556,19 +30548,19 @@
         <v>31</v>
       </c>
       <c r="E915" s="1" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F915" s="1" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="G915" s="10" t="s">
         <v>895</v>
       </c>
       <c r="H915" s="2">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="I915" s="3">
-        <v>204000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.25">
@@ -30585,19 +30577,19 @@
         <v>31</v>
       </c>
       <c r="E916" s="1" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="F916" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G916" s="10" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="H916" s="2">
-        <v>19976</v>
+        <v>96000</v>
       </c>
       <c r="I916" s="3">
-        <v>39952</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="917" spans="1:9" x14ac:dyDescent="0.25">
@@ -30614,20 +30606,18 @@
         <v>31</v>
       </c>
       <c r="E917" s="1" t="s">
-        <v>120</v>
+        <v>773</v>
       </c>
       <c r="F917" s="1" t="s">
-        <v>121</v>
+        <v>774</v>
       </c>
       <c r="G917" s="10" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="H917" s="2">
-        <v>19976</v>
-      </c>
-      <c r="I917" s="3">
-        <v>19976</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I917" s="3"/>
     </row>
     <row r="918" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A918" s="10" t="s">
@@ -30643,19 +30633,19 @@
         <v>31</v>
       </c>
       <c r="E918" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F918" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G918" s="10" t="s">
         <v>887</v>
       </c>
       <c r="H918" s="2">
-        <v>24000</v>
+        <v>56250</v>
       </c>
       <c r="I918" s="3">
-        <v>71780</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="919" spans="1:9" x14ac:dyDescent="0.25">
@@ -30672,20 +30662,18 @@
         <v>31</v>
       </c>
       <c r="E919" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F919" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H919" s="2">
-        <v>72000</v>
-      </c>
-      <c r="I919" s="3">
-        <v>192000</v>
-      </c>
+        <v>5634</v>
+      </c>
+      <c r="I919" s="3"/>
     </row>
     <row r="920" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A920" s="10" t="s">
@@ -30701,19 +30689,19 @@
         <v>31</v>
       </c>
       <c r="E920" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F920" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H920" s="2">
-        <v>48000</v>
+        <v>47940</v>
       </c>
       <c r="I920" s="3">
-        <v>48000</v>
+        <v>71940</v>
       </c>
     </row>
     <row r="921" spans="1:9" x14ac:dyDescent="0.25">
@@ -30730,19 +30718,19 @@
         <v>31</v>
       </c>
       <c r="E921" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="F921" s="1" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="G921" s="10" t="s">
         <v>895</v>
       </c>
       <c r="H921" s="2">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="I921" s="3">
-        <v>9600</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="922" spans="1:9" x14ac:dyDescent="0.25">
@@ -30759,20 +30747,18 @@
         <v>31</v>
       </c>
       <c r="E922" s="1" t="s">
-        <v>779</v>
+        <v>116</v>
       </c>
       <c r="F922" s="1" t="s">
-        <v>780</v>
+        <v>117</v>
       </c>
       <c r="G922" s="10" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H922" s="2">
-        <v>0</v>
-      </c>
-      <c r="I922" s="3">
-        <v>24000</v>
-      </c>
+        <v>4050</v>
+      </c>
+      <c r="I922" s="3"/>
     </row>
     <row r="923" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A923" s="10" t="s">
@@ -30788,19 +30774,19 @@
         <v>31</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F923" s="1" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="G923" s="10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H923" s="2">
-        <v>0</v>
+        <v>19976</v>
       </c>
       <c r="I923" s="3">
-        <v>9600</v>
+        <v>39952</v>
       </c>
     </row>
     <row r="924" spans="1:9" x14ac:dyDescent="0.25">
@@ -30817,19 +30803,19 @@
         <v>31</v>
       </c>
       <c r="E924" s="1" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="F924" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G924" s="10" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="H924" s="2">
-        <v>24000</v>
+        <v>19976</v>
       </c>
       <c r="I924" s="3">
-        <v>48000</v>
+        <v>19976</v>
       </c>
     </row>
     <row r="925" spans="1:9" x14ac:dyDescent="0.25">
@@ -30840,25 +30826,25 @@
         <v>5</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E925" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="F925" s="1" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="G925" s="10" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="H925" s="2">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="I925" s="3">
-        <v>525000</v>
+        <v>71780</v>
       </c>
     </row>
     <row r="926" spans="1:9" x14ac:dyDescent="0.25">
@@ -30866,28 +30852,28 @@
         <v>931</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E926" s="1" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="F926" s="1" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="H926" s="2">
-        <v>4310.9380000000001</v>
+        <v>72000</v>
       </c>
       <c r="I926" s="3">
-        <v>29191.119999999999</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="927" spans="1:9" x14ac:dyDescent="0.25">
@@ -30895,28 +30881,28 @@
         <v>931</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E927" s="1" t="s">
-        <v>322</v>
+        <v>132</v>
       </c>
       <c r="F927" s="1" t="s">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="H927" s="2">
-        <v>8272.6110000000008</v>
+        <v>48000</v>
       </c>
       <c r="I927" s="3">
-        <v>10548.33</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="928" spans="1:9" x14ac:dyDescent="0.25">
@@ -30924,28 +30910,28 @@
         <v>931</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="F928" s="1" t="s">
-        <v>329</v>
+        <v>53</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H928" s="2">
-        <v>31074.44</v>
+        <v>0</v>
       </c>
       <c r="I928" s="3">
-        <v>173568.56</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.25">
@@ -30953,28 +30939,28 @@
         <v>931</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>330</v>
+        <v>779</v>
       </c>
       <c r="F929" s="1" t="s">
-        <v>331</v>
+        <v>780</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H929" s="2">
         <v>0</v>
       </c>
       <c r="I929" s="3">
-        <v>34681.51</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.25">
@@ -30982,28 +30968,28 @@
         <v>931</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D930" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E930" s="1" t="s">
-        <v>492</v>
+        <v>153</v>
       </c>
       <c r="F930" s="1" t="s">
-        <v>493</v>
+        <v>154</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="H930" s="2">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="I930" s="3">
-        <v>17929.62</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.25">
@@ -31011,28 +30997,28 @@
         <v>931</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E931" s="1" t="s">
-        <v>609</v>
+        <v>165</v>
       </c>
       <c r="F931" s="1" t="s">
-        <v>610</v>
+        <v>166</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="H931" s="2">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="I931" s="3">
-        <v>28437.52</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.25">
@@ -31040,28 +31026,28 @@
         <v>931</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="E932" s="1" t="s">
-        <v>611</v>
+        <v>159</v>
       </c>
       <c r="F932" s="1" t="s">
-        <v>612</v>
+        <v>160</v>
       </c>
       <c r="G932" s="10" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="H932" s="2">
         <v>0</v>
       </c>
       <c r="I932" s="3">
-        <v>20660.34</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.25">
@@ -31078,19 +31064,19 @@
         <v>13</v>
       </c>
       <c r="E933" s="1" t="s">
-        <v>613</v>
+        <v>244</v>
       </c>
       <c r="F933" s="1" t="s">
-        <v>614</v>
+        <v>245</v>
       </c>
       <c r="G933" s="10" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="H933" s="2">
-        <v>0</v>
+        <v>4849.8059999999996</v>
       </c>
       <c r="I933" s="3">
-        <v>22435.18</v>
+        <v>29191.119999999999</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.25">
@@ -31107,19 +31093,19 @@
         <v>13</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>828</v>
+        <v>322</v>
       </c>
       <c r="F934" s="1" t="s">
-        <v>829</v>
+        <v>249</v>
       </c>
       <c r="G934" s="10" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="H934" s="2">
-        <v>0</v>
+        <v>22103.538</v>
       </c>
       <c r="I934" s="3">
-        <v>11449.65</v>
+        <v>10548.33</v>
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.25">
@@ -31130,25 +31116,25 @@
         <v>187</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="F935" s="1" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="G935" s="10" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="H935" s="2">
-        <v>21831.8</v>
+        <v>34245.552000000003</v>
       </c>
       <c r="I935" s="3">
-        <v>72000</v>
+        <v>173568.56</v>
       </c>
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.25">
@@ -31159,25 +31145,25 @@
         <v>187</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E936" s="1" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="F936" s="1" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="G936" s="10" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="H936" s="2">
-        <v>45143.82</v>
+        <v>0</v>
       </c>
       <c r="I936" s="3">
-        <v>312000</v>
+        <v>34681.51</v>
       </c>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.25">
@@ -31188,25 +31174,25 @@
         <v>187</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E937" s="1" t="s">
-        <v>808</v>
+        <v>492</v>
       </c>
       <c r="F937" s="1" t="s">
-        <v>265</v>
+        <v>493</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H937" s="2">
         <v>0</v>
       </c>
       <c r="I937" s="3">
-        <v>24000</v>
+        <v>17929.62</v>
       </c>
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.25">
@@ -31217,25 +31203,25 @@
         <v>187</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E938" s="1" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="F938" s="1" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H938" s="2">
-        <v>46438.7</v>
+        <v>0</v>
       </c>
       <c r="I938" s="3">
-        <v>216000</v>
+        <v>28437.52</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.25">
@@ -31246,25 +31232,25 @@
         <v>187</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E939" s="1" t="s">
-        <v>220</v>
+        <v>611</v>
       </c>
       <c r="F939" s="1" t="s">
-        <v>221</v>
+        <v>612</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="H939" s="2">
         <v>0</v>
       </c>
       <c r="I939" s="3">
-        <v>48000</v>
+        <v>20660.34</v>
       </c>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.25">
@@ -31275,25 +31261,25 @@
         <v>187</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>248</v>
+        <v>613</v>
       </c>
       <c r="F940" s="1" t="s">
-        <v>249</v>
+        <v>614</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="H940" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I940" s="3">
-        <v>140000</v>
+        <v>22435.18</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.25">
@@ -31304,25 +31290,25 @@
         <v>187</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E941" s="1" t="s">
-        <v>439</v>
+        <v>828</v>
       </c>
       <c r="F941" s="1" t="s">
-        <v>440</v>
+        <v>829</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H941" s="2">
         <v>0</v>
       </c>
       <c r="I941" s="3">
-        <v>20000</v>
+        <v>11449.65</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.25">
@@ -31333,25 +31319,25 @@
         <v>187</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E942" s="1" t="s">
-        <v>848</v>
+        <v>363</v>
       </c>
       <c r="F942" s="1" t="s">
-        <v>644</v>
+        <v>364</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H942" s="2">
-        <v>0</v>
+        <v>21831.8</v>
       </c>
       <c r="I942" s="3">
-        <v>40000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.25">
@@ -31362,25 +31348,25 @@
         <v>187</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E943" s="1" t="s">
-        <v>944</v>
+        <v>429</v>
       </c>
       <c r="F943" s="1" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="H943" s="2">
-        <v>23310</v>
+        <v>93137.71</v>
       </c>
       <c r="I943" s="3">
-        <v>23310</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.25">
@@ -31391,25 +31377,25 @@
         <v>187</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>366</v>
+        <v>808</v>
       </c>
       <c r="F944" s="1" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H944" s="2">
-        <v>1509.3</v>
+        <v>0</v>
       </c>
       <c r="I944" s="3">
-        <v>2000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.25">
@@ -31420,25 +31406,25 @@
         <v>187</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E945" s="1" t="s">
-        <v>368</v>
+        <v>627</v>
       </c>
       <c r="F945" s="1" t="s">
-        <v>249</v>
+        <v>628</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="H945" s="2">
-        <v>0</v>
+        <v>69524.490000000005</v>
       </c>
       <c r="I945" s="3">
-        <v>500</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.25">
@@ -31449,25 +31435,25 @@
         <v>187</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E946" s="1" t="s">
-        <v>369</v>
+        <v>220</v>
       </c>
       <c r="F946" s="1" t="s">
-        <v>370</v>
+        <v>221</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="H946" s="2">
-        <v>26850.3</v>
+        <v>23996.98</v>
       </c>
       <c r="I946" s="3">
-        <v>65000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.25">
@@ -31478,25 +31464,25 @@
         <v>187</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D947" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="F947" s="1" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="H947" s="2">
-        <v>9984.7000000000007</v>
+        <v>40000</v>
       </c>
       <c r="I947" s="3">
-        <v>25000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.25">
@@ -31507,25 +31493,25 @@
         <v>187</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="F948" s="1" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="G948" s="10" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H948" s="2">
         <v>0</v>
       </c>
       <c r="I948" s="3">
-        <v>1000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.25">
@@ -31536,25 +31522,25 @@
         <v>187</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E949" s="1" t="s">
-        <v>375</v>
+        <v>848</v>
       </c>
       <c r="F949" s="1" t="s">
-        <v>376</v>
+        <v>644</v>
       </c>
       <c r="G949" s="10" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="H949" s="2">
-        <v>5151.1000000000004</v>
+        <v>0</v>
       </c>
       <c r="I949" s="3">
-        <v>16000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.25">
@@ -31565,25 +31551,25 @@
         <v>187</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E950" s="1" t="s">
-        <v>377</v>
+        <v>944</v>
       </c>
       <c r="F950" s="1" t="s">
-        <v>378</v>
+        <v>466</v>
       </c>
       <c r="G950" s="10" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="H950" s="2">
-        <v>71920</v>
+        <v>23310</v>
       </c>
       <c r="I950" s="3">
-        <v>456000</v>
+        <v>23310</v>
       </c>
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.25">
@@ -31600,19 +31586,19 @@
         <v>105</v>
       </c>
       <c r="E951" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F951" s="1" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G951" s="10" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="H951" s="2">
-        <v>0</v>
+        <v>1509.3</v>
       </c>
       <c r="I951" s="3">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.25">
@@ -31629,18 +31615,20 @@
         <v>105</v>
       </c>
       <c r="E952" s="1" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F952" s="1" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="H952" s="2">
-        <v>10</v>
-      </c>
-      <c r="I952" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="I952" s="3">
+        <v>500</v>
+      </c>
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A953" s="10" t="s">
@@ -31656,19 +31644,19 @@
         <v>105</v>
       </c>
       <c r="E953" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="F953" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="H953" s="2">
-        <v>1000</v>
+        <v>26850.3</v>
       </c>
       <c r="I953" s="3">
-        <v>9000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.25">
@@ -31685,18 +31673,20 @@
         <v>105</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="F954" s="1" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="G954" s="10" t="s">
         <v>901</v>
       </c>
       <c r="H954" s="2">
-        <v>1287.5</v>
-      </c>
-      <c r="I954" s="3"/>
+        <v>9984.7000000000007</v>
+      </c>
+      <c r="I954" s="3">
+        <v>25000</v>
+      </c>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A955" s="10" t="s">
@@ -31712,19 +31702,19 @@
         <v>105</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>945</v>
+        <v>373</v>
       </c>
       <c r="F955" s="1" t="s">
-        <v>946</v>
+        <v>374</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="H955" s="2">
-        <v>2998.1</v>
+        <v>0</v>
       </c>
       <c r="I955" s="3">
-        <v>10500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.25">
@@ -31741,19 +31731,19 @@
         <v>105</v>
       </c>
       <c r="E956" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="F956" s="1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="H956" s="2">
-        <v>20870.7</v>
+        <v>5151.1000000000004</v>
       </c>
       <c r="I956" s="3">
-        <v>26000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.25">
@@ -31770,19 +31760,19 @@
         <v>105</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="F957" s="1" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="H957" s="2">
-        <v>10883.6</v>
+        <v>95920</v>
       </c>
       <c r="I957" s="3">
-        <v>20000</v>
+        <v>456000</v>
       </c>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.25">
@@ -31799,19 +31789,19 @@
         <v>105</v>
       </c>
       <c r="E958" s="1" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="F958" s="1" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="H958" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I958" s="3">
-        <v>3500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.25">
@@ -31828,20 +31818,18 @@
         <v>105</v>
       </c>
       <c r="E959" s="1" t="s">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="F959" s="1" t="s">
-        <v>464</v>
+        <v>382</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="H959" s="2">
-        <v>24819.7</v>
-      </c>
-      <c r="I959" s="3">
-        <v>36700</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I959" s="3"/>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A960" s="10" t="s">
@@ -31857,19 +31845,19 @@
         <v>105</v>
       </c>
       <c r="E960" s="1" t="s">
-        <v>947</v>
+        <v>388</v>
       </c>
       <c r="F960" s="1" t="s">
-        <v>948</v>
+        <v>389</v>
       </c>
       <c r="G960" s="10" t="s">
         <v>896</v>
       </c>
       <c r="H960" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I960" s="3">
-        <v>3000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="961" spans="1:9" x14ac:dyDescent="0.25">
@@ -31886,20 +31874,18 @@
         <v>105</v>
       </c>
       <c r="E961" s="1" t="s">
-        <v>476</v>
+        <v>401</v>
       </c>
       <c r="F961" s="1" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="G961" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H961" s="2">
-        <v>209.8</v>
-      </c>
-      <c r="I961" s="3">
-        <v>12000</v>
-      </c>
+        <v>1287.5</v>
+      </c>
+      <c r="I961" s="3"/>
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A962" s="10" t="s">
@@ -31915,19 +31901,19 @@
         <v>105</v>
       </c>
       <c r="E962" s="1" t="s">
-        <v>484</v>
+        <v>945</v>
       </c>
       <c r="F962" s="1" t="s">
-        <v>485</v>
+        <v>946</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="H962" s="2">
-        <v>0</v>
+        <v>2998.1</v>
       </c>
       <c r="I962" s="3">
-        <v>2000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.25">
@@ -31944,19 +31930,19 @@
         <v>105</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="F963" s="1" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="H963" s="2">
-        <v>7658.2</v>
+        <v>20870.7</v>
       </c>
       <c r="I963" s="3">
-        <v>34000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.25">
@@ -31973,16 +31959,16 @@
         <v>105</v>
       </c>
       <c r="E964" s="1" t="s">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="F964" s="1" t="s">
-        <v>513</v>
+        <v>410</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="H964" s="2">
-        <v>13356</v>
+        <v>10883.6</v>
       </c>
       <c r="I964" s="3">
         <v>20000</v>
@@ -32002,19 +31988,19 @@
         <v>105</v>
       </c>
       <c r="E965" s="1" t="s">
-        <v>516</v>
+        <v>437</v>
       </c>
       <c r="F965" s="1" t="s">
-        <v>517</v>
+        <v>438</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H965" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I965" s="3">
-        <v>24000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.25">
@@ -32031,19 +32017,19 @@
         <v>105</v>
       </c>
       <c r="E966" s="1" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="F966" s="1" t="s">
-        <v>529</v>
+        <v>464</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H966" s="2">
-        <v>35844.400000000001</v>
+        <v>24819.7</v>
       </c>
       <c r="I966" s="3">
-        <v>45000</v>
+        <v>36700</v>
       </c>
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.25">
@@ -32060,19 +32046,19 @@
         <v>105</v>
       </c>
       <c r="E967" s="1" t="s">
-        <v>530</v>
+        <v>947</v>
       </c>
       <c r="F967" s="1" t="s">
-        <v>531</v>
+        <v>948</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H967" s="2">
-        <v>17474.599999999999</v>
+        <v>0</v>
       </c>
       <c r="I967" s="3">
-        <v>51000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.25">
@@ -32089,19 +32075,19 @@
         <v>105</v>
       </c>
       <c r="E968" s="1" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
       <c r="F968" s="1" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="G968" s="10" t="s">
         <v>899</v>
       </c>
       <c r="H968" s="2">
-        <v>4724.3999999999996</v>
+        <v>615.70000000000005</v>
       </c>
       <c r="I968" s="3">
-        <v>32000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.25">
@@ -32118,19 +32104,19 @@
         <v>105</v>
       </c>
       <c r="E969" s="1" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="F969" s="1" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="G969" s="10" t="s">
         <v>899</v>
       </c>
       <c r="H969" s="2">
-        <v>5615.6</v>
+        <v>2025.3</v>
       </c>
       <c r="I969" s="3">
-        <v>46000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.25">
@@ -32147,19 +32133,19 @@
         <v>105</v>
       </c>
       <c r="E970" s="1" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="F970" s="1" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="H970" s="2">
-        <v>0</v>
+        <v>7658.2</v>
       </c>
       <c r="I970" s="3">
-        <v>24000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.25">
@@ -32176,19 +32162,19 @@
         <v>105</v>
       </c>
       <c r="E971" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="F971" s="1" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H971" s="2">
-        <v>0</v>
+        <v>13356</v>
       </c>
       <c r="I971" s="3">
-        <v>72000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.25">
@@ -32205,19 +32191,19 @@
         <v>105</v>
       </c>
       <c r="E972" s="1" t="s">
-        <v>927</v>
+        <v>516</v>
       </c>
       <c r="F972" s="1" t="s">
-        <v>928</v>
+        <v>517</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="H972" s="2">
-        <v>8030</v>
+        <v>0</v>
       </c>
       <c r="I972" s="3">
-        <v>23000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.25">
@@ -32234,19 +32220,19 @@
         <v>105</v>
       </c>
       <c r="E973" s="1" t="s">
-        <v>590</v>
+        <v>528</v>
       </c>
       <c r="F973" s="1" t="s">
-        <v>591</v>
+        <v>529</v>
       </c>
       <c r="G973" s="10" t="s">
         <v>901</v>
       </c>
       <c r="H973" s="2">
-        <v>363.1</v>
+        <v>40665.599999999999</v>
       </c>
       <c r="I973" s="3">
-        <v>7000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.25">
@@ -32263,19 +32249,19 @@
         <v>105</v>
       </c>
       <c r="E974" s="1" t="s">
-        <v>949</v>
+        <v>530</v>
       </c>
       <c r="F974" s="1" t="s">
-        <v>950</v>
+        <v>531</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H974" s="2">
-        <v>1000</v>
+        <v>22259</v>
       </c>
       <c r="I974" s="3">
-        <v>1000</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.25">
@@ -32292,19 +32278,19 @@
         <v>105</v>
       </c>
       <c r="E975" s="1" t="s">
-        <v>607</v>
+        <v>532</v>
       </c>
       <c r="F975" s="1" t="s">
-        <v>608</v>
+        <v>533</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="H975" s="2">
-        <v>4018.6</v>
+        <v>13814.4</v>
       </c>
       <c r="I975" s="3">
-        <v>12000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.25">
@@ -32315,25 +32301,25 @@
         <v>187</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D976" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E976" s="1" t="s">
-        <v>274</v>
+        <v>534</v>
       </c>
       <c r="F976" s="1" t="s">
-        <v>275</v>
+        <v>535</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="H976" s="2">
-        <v>23993.115000000002</v>
+        <v>8305.7999999999993</v>
       </c>
       <c r="I976" s="3">
-        <v>24000</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.25">
@@ -32344,25 +32330,25 @@
         <v>187</v>
       </c>
       <c r="C977" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E977" s="1" t="s">
-        <v>316</v>
+        <v>546</v>
       </c>
       <c r="F977" s="1" t="s">
-        <v>317</v>
+        <v>547</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H977" s="2">
-        <v>95637.353000000003</v>
+        <v>0</v>
       </c>
       <c r="I977" s="3">
-        <v>191970</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.25">
@@ -32373,25 +32359,25 @@
         <v>187</v>
       </c>
       <c r="C978" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="F978" s="1" t="s">
-        <v>319</v>
+        <v>549</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H978" s="2">
-        <v>47998.288999999997</v>
+        <v>24000</v>
       </c>
       <c r="I978" s="3">
-        <v>360000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.25">
@@ -32402,25 +32388,25 @@
         <v>187</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D979" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E979" s="1" t="s">
-        <v>332</v>
+        <v>927</v>
       </c>
       <c r="F979" s="1" t="s">
-        <v>333</v>
+        <v>928</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H979" s="2">
-        <v>24016.39</v>
+        <v>8030</v>
       </c>
       <c r="I979" s="3">
-        <v>167000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.25">
@@ -32431,25 +32417,25 @@
         <v>187</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E980" s="1" t="s">
-        <v>365</v>
+        <v>590</v>
       </c>
       <c r="F980" s="1" t="s">
-        <v>287</v>
+        <v>591</v>
       </c>
       <c r="G980" s="10" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="H980" s="2">
-        <v>48008.523000000001</v>
+        <v>363.1</v>
       </c>
       <c r="I980" s="3">
-        <v>240000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="981" spans="1:9" x14ac:dyDescent="0.25">
@@ -32460,25 +32446,25 @@
         <v>187</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E981" s="1" t="s">
-        <v>604</v>
+        <v>949</v>
       </c>
       <c r="F981" s="1" t="s">
-        <v>605</v>
+        <v>950</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H981" s="2">
-        <v>24000</v>
+        <v>1000</v>
       </c>
       <c r="I981" s="3">
-        <v>47780</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="982" spans="1:9" x14ac:dyDescent="0.25">
@@ -32489,25 +32475,25 @@
         <v>187</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E982" s="1" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F982" s="1" t="s">
-        <v>566</v>
+        <v>608</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="H982" s="2">
-        <v>24200</v>
+        <v>4018.6</v>
       </c>
       <c r="I982" s="3">
-        <v>240000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.25">
@@ -32524,19 +32510,19 @@
         <v>21</v>
       </c>
       <c r="E983" s="1" t="s">
-        <v>621</v>
+        <v>274</v>
       </c>
       <c r="F983" s="1" t="s">
-        <v>622</v>
+        <v>275</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H983" s="2">
-        <v>23680</v>
+        <v>23993.115000000002</v>
       </c>
       <c r="I983" s="3">
-        <v>23680</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.25">
@@ -32553,19 +32539,19 @@
         <v>21</v>
       </c>
       <c r="E984" s="1" t="s">
-        <v>623</v>
+        <v>316</v>
       </c>
       <c r="F984" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G984" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H984" s="2">
-        <v>24048.598000000002</v>
+        <v>143650.00200000001</v>
       </c>
       <c r="I984" s="3">
-        <v>48133</v>
+        <v>191970</v>
       </c>
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.25">
@@ -32582,19 +32568,19 @@
         <v>21</v>
       </c>
       <c r="E985" s="1" t="s">
-        <v>629</v>
+        <v>318</v>
       </c>
       <c r="F985" s="1" t="s">
-        <v>630</v>
+        <v>319</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="H985" s="2">
-        <v>24017.194</v>
+        <v>144125.78700000001</v>
       </c>
       <c r="I985" s="3">
-        <v>144000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.25">
@@ -32611,19 +32597,19 @@
         <v>21</v>
       </c>
       <c r="E986" s="1" t="s">
-        <v>656</v>
+        <v>332</v>
       </c>
       <c r="F986" s="1" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="G986" s="10" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="H986" s="2">
-        <v>0</v>
+        <v>71878.444000000003</v>
       </c>
       <c r="I986" s="3">
-        <v>24000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.25">
@@ -32634,25 +32620,25 @@
         <v>187</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D987" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E987" s="1" t="s">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="F987" s="1" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="H987" s="2">
-        <v>0</v>
+        <v>72154.926999999996</v>
       </c>
       <c r="I987" s="3">
-        <v>24000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="988" spans="1:9" x14ac:dyDescent="0.25">
@@ -32663,25 +32649,25 @@
         <v>187</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E988" s="1" t="s">
-        <v>202</v>
+        <v>604</v>
       </c>
       <c r="F988" s="1" t="s">
-        <v>203</v>
+        <v>605</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="H988" s="2">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="I988" s="3">
-        <v>24000</v>
+        <v>47780</v>
       </c>
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.25">
@@ -32692,25 +32678,25 @@
         <v>187</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D989" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E989" s="1" t="s">
-        <v>204</v>
+        <v>619</v>
       </c>
       <c r="F989" s="1" t="s">
-        <v>205</v>
+        <v>566</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H989" s="2">
-        <v>23984.89</v>
+        <v>72220</v>
       </c>
       <c r="I989" s="3">
-        <v>48000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="990" spans="1:9" x14ac:dyDescent="0.25">
@@ -32721,25 +32707,25 @@
         <v>187</v>
       </c>
       <c r="C990" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E990" s="1" t="s">
-        <v>206</v>
+        <v>621</v>
       </c>
       <c r="F990" s="1" t="s">
-        <v>207</v>
+        <v>622</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H990" s="2">
-        <v>24010.14</v>
+        <v>23680</v>
       </c>
       <c r="I990" s="3">
-        <v>165793</v>
+        <v>23680</v>
       </c>
     </row>
     <row r="991" spans="1:9" x14ac:dyDescent="0.25">
@@ -32750,25 +32736,25 @@
         <v>187</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E991" s="1" t="s">
-        <v>208</v>
+        <v>623</v>
       </c>
       <c r="F991" s="1" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="H991" s="2">
-        <v>96023.08</v>
+        <v>24048.598000000002</v>
       </c>
       <c r="I991" s="3">
-        <v>240000</v>
+        <v>48133</v>
       </c>
     </row>
     <row r="992" spans="1:9" x14ac:dyDescent="0.25">
@@ -32779,22 +32765,22 @@
         <v>187</v>
       </c>
       <c r="C992" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E992" s="1" t="s">
-        <v>246</v>
+        <v>629</v>
       </c>
       <c r="F992" s="1" t="s">
-        <v>247</v>
+        <v>630</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="H992" s="2">
-        <v>47988.43</v>
+        <v>24017.194</v>
       </c>
       <c r="I992" s="3">
         <v>144000</v>
@@ -32808,13 +32794,13 @@
         <v>187</v>
       </c>
       <c r="C993" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D993" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E993" s="1" t="s">
-        <v>254</v>
+        <v>656</v>
       </c>
       <c r="F993" s="1" t="s">
         <v>255</v>
@@ -32823,10 +32809,10 @@
         <v>907</v>
       </c>
       <c r="H993" s="2">
-        <v>21637.47</v>
+        <v>0</v>
       </c>
       <c r="I993" s="3">
-        <v>59994.05</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="994" spans="1:9" x14ac:dyDescent="0.25">
@@ -32843,19 +32829,19 @@
         <v>11</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="F994" s="1" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H994" s="2">
         <v>0</v>
       </c>
       <c r="I994" s="3">
-        <v>48000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="995" spans="1:9" x14ac:dyDescent="0.25">
@@ -32872,19 +32858,19 @@
         <v>11</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>795</v>
+        <v>202</v>
       </c>
       <c r="F995" s="1" t="s">
-        <v>796</v>
+        <v>203</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H995" s="2">
-        <v>0</v>
+        <v>23999.63</v>
       </c>
       <c r="I995" s="3">
-        <v>1678</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="996" spans="1:9" x14ac:dyDescent="0.25">
@@ -32901,19 +32887,19 @@
         <v>11</v>
       </c>
       <c r="E996" s="1" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="F996" s="1" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H996" s="2">
-        <v>0</v>
+        <v>23984.89</v>
       </c>
       <c r="I996" s="3">
-        <v>14000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.25">
@@ -32930,19 +32916,19 @@
         <v>11</v>
       </c>
       <c r="E997" s="1" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F997" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="G997" s="10" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H997" s="2">
-        <v>151253.04</v>
+        <v>39021.18</v>
       </c>
       <c r="I997" s="3">
-        <v>706720</v>
+        <v>165793</v>
       </c>
     </row>
     <row r="998" spans="1:9" x14ac:dyDescent="0.25">
@@ -32959,19 +32945,19 @@
         <v>11</v>
       </c>
       <c r="E998" s="1" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="F998" s="1" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H998" s="2">
-        <v>23940.87</v>
+        <v>168004.62</v>
       </c>
       <c r="I998" s="3">
-        <v>120000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="999" spans="1:9" x14ac:dyDescent="0.25">
@@ -32988,19 +32974,19 @@
         <v>11</v>
       </c>
       <c r="E999" s="1" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="F999" s="1" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="G999" s="10" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H999" s="2">
-        <v>0</v>
+        <v>47988.43</v>
       </c>
       <c r="I999" s="3">
-        <v>47500</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
@@ -33017,19 +33003,19 @@
         <v>11</v>
       </c>
       <c r="E1000" s="1" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="F1000" s="1" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="H1000" s="2">
-        <v>0</v>
+        <v>21637.47</v>
       </c>
       <c r="I1000" s="3">
-        <v>24000</v>
+        <v>59994.05</v>
       </c>
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
@@ -33046,19 +33032,19 @@
         <v>11</v>
       </c>
       <c r="E1001" s="1" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F1001" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H1001" s="2">
-        <v>0</v>
+        <v>24049.08</v>
       </c>
       <c r="I1001" s="3">
-        <v>96000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
@@ -33075,19 +33061,19 @@
         <v>11</v>
       </c>
       <c r="E1002" s="1" t="s">
-        <v>292</v>
+        <v>795</v>
       </c>
       <c r="F1002" s="1" t="s">
-        <v>293</v>
+        <v>796</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H1002" s="2">
         <v>0</v>
       </c>
       <c r="I1002" s="3">
-        <v>24000</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
@@ -33104,19 +33090,19 @@
         <v>11</v>
       </c>
       <c r="E1003" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F1003" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H1003" s="2">
-        <v>24000.12</v>
+        <v>0</v>
       </c>
       <c r="I1003" s="3">
-        <v>48166.85</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
@@ -33133,19 +33119,19 @@
         <v>11</v>
       </c>
       <c r="E1004" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="F1004" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="H1004" s="2">
-        <v>0</v>
+        <v>199202.31</v>
       </c>
       <c r="I1004" s="3">
-        <v>24000</v>
+        <v>706720</v>
       </c>
     </row>
     <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
@@ -33162,19 +33148,19 @@
         <v>11</v>
       </c>
       <c r="E1005" s="1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F1005" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="H1005" s="2">
-        <v>0</v>
+        <v>47932.61</v>
       </c>
       <c r="I1005" s="3">
-        <v>22500</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
@@ -33191,19 +33177,19 @@
         <v>11</v>
       </c>
       <c r="E1006" s="1" t="s">
-        <v>797</v>
+        <v>280</v>
       </c>
       <c r="F1006" s="1" t="s">
-        <v>798</v>
+        <v>281</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1006" s="2">
-        <v>0</v>
+        <v>23991</v>
       </c>
       <c r="I1006" s="3">
-        <v>10000</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
@@ -33220,19 +33206,19 @@
         <v>11</v>
       </c>
       <c r="E1007" s="1" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="F1007" s="1" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1007" s="2">
-        <v>23989.66</v>
+        <v>0</v>
       </c>
       <c r="I1007" s="3">
-        <v>48000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
@@ -33249,19 +33235,19 @@
         <v>11</v>
       </c>
       <c r="E1008" s="1" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="F1008" s="1" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="H1008" s="2">
-        <v>0</v>
+        <v>24055.29</v>
       </c>
       <c r="I1008" s="3">
-        <v>144000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
@@ -33278,19 +33264,19 @@
         <v>11</v>
       </c>
       <c r="E1009" s="1" t="s">
-        <v>951</v>
+        <v>292</v>
       </c>
       <c r="F1009" s="1" t="s">
-        <v>796</v>
+        <v>293</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H1009" s="2">
         <v>0</v>
       </c>
       <c r="I1009" s="3">
-        <v>8700</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
@@ -33307,19 +33293,19 @@
         <v>11</v>
       </c>
       <c r="E1010" s="1" t="s">
-        <v>803</v>
+        <v>294</v>
       </c>
       <c r="F1010" s="1" t="s">
-        <v>804</v>
+        <v>295</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="H1010" s="2">
-        <v>0</v>
+        <v>24000.12</v>
       </c>
       <c r="I1010" s="3">
-        <v>43000</v>
+        <v>48166.85</v>
       </c>
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
@@ -33336,19 +33322,19 @@
         <v>11</v>
       </c>
       <c r="E1011" s="1" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="F1011" s="1" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="H1011" s="2">
-        <v>24073.31</v>
+        <v>0</v>
       </c>
       <c r="I1011" s="3">
-        <v>216000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
@@ -33365,19 +33351,19 @@
         <v>11</v>
       </c>
       <c r="E1012" s="1" t="s">
-        <v>952</v>
+        <v>298</v>
       </c>
       <c r="F1012" s="1" t="s">
-        <v>953</v>
+        <v>299</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="H1012" s="2">
         <v>0</v>
       </c>
       <c r="I1012" s="3">
-        <v>5000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
@@ -33394,19 +33380,19 @@
         <v>11</v>
       </c>
       <c r="E1013" s="1" t="s">
-        <v>403</v>
+        <v>797</v>
       </c>
       <c r="F1013" s="1" t="s">
-        <v>404</v>
+        <v>798</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="H1013" s="2">
-        <v>14958.3</v>
+        <v>7014.09</v>
       </c>
       <c r="I1013" s="3">
-        <v>17000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
@@ -33423,19 +33409,19 @@
         <v>11</v>
       </c>
       <c r="E1014" s="1" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="F1014" s="1" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1014" s="2">
-        <v>95980.83</v>
+        <v>23989.66</v>
       </c>
       <c r="I1014" s="3">
-        <v>322400</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
@@ -33452,19 +33438,19 @@
         <v>11</v>
       </c>
       <c r="E1015" s="1" t="s">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="F1015" s="1" t="s">
-        <v>426</v>
+        <v>321</v>
       </c>
       <c r="G1015" s="10" t="s">
         <v>903</v>
       </c>
       <c r="H1015" s="2">
-        <v>24019.23</v>
+        <v>23969.99</v>
       </c>
       <c r="I1015" s="3">
-        <v>24000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
@@ -33481,19 +33467,19 @@
         <v>11</v>
       </c>
       <c r="E1016" s="1" t="s">
-        <v>808</v>
+        <v>951</v>
       </c>
       <c r="F1016" s="1" t="s">
-        <v>265</v>
+        <v>796</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H1016" s="2">
         <v>0</v>
       </c>
       <c r="I1016" s="3">
-        <v>12000</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
@@ -33510,19 +33496,19 @@
         <v>11</v>
       </c>
       <c r="E1017" s="1" t="s">
-        <v>431</v>
+        <v>803</v>
       </c>
       <c r="F1017" s="1" t="s">
-        <v>432</v>
+        <v>804</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H1017" s="2">
         <v>0</v>
       </c>
       <c r="I1017" s="3">
-        <v>48000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
@@ -33539,19 +33525,19 @@
         <v>11</v>
       </c>
       <c r="E1018" s="1" t="s">
-        <v>465</v>
+        <v>386</v>
       </c>
       <c r="F1018" s="1" t="s">
-        <v>466</v>
+        <v>387</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="H1018" s="2">
-        <v>0</v>
+        <v>72088.679999999993</v>
       </c>
       <c r="I1018" s="3">
-        <v>23940</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
@@ -33568,19 +33554,19 @@
         <v>11</v>
       </c>
       <c r="E1019" s="1" t="s">
-        <v>508</v>
+        <v>952</v>
       </c>
       <c r="F1019" s="1" t="s">
-        <v>509</v>
+        <v>953</v>
       </c>
       <c r="G1019" s="10" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="H1019" s="2">
-        <v>47839.21</v>
+        <v>0</v>
       </c>
       <c r="I1019" s="3">
-        <v>264000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
@@ -33597,19 +33583,19 @@
         <v>11</v>
       </c>
       <c r="E1020" s="1" t="s">
-        <v>518</v>
+        <v>403</v>
       </c>
       <c r="F1020" s="1" t="s">
-        <v>519</v>
+        <v>404</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H1020" s="2">
-        <v>0</v>
+        <v>14958.3</v>
       </c>
       <c r="I1020" s="3">
-        <v>5140</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
@@ -33626,19 +33612,19 @@
         <v>11</v>
       </c>
       <c r="E1021" s="1" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
       <c r="F1021" s="1" t="s">
-        <v>521</v>
+        <v>287</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H1021" s="2">
-        <v>0</v>
+        <v>95980.83</v>
       </c>
       <c r="I1021" s="3">
-        <v>26500</v>
+        <v>322400</v>
       </c>
     </row>
     <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
@@ -33655,19 +33641,19 @@
         <v>11</v>
       </c>
       <c r="E1022" s="1" t="s">
-        <v>524</v>
+        <v>425</v>
       </c>
       <c r="F1022" s="1" t="s">
-        <v>525</v>
+        <v>426</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1022" s="2">
-        <v>0</v>
+        <v>24019.23</v>
       </c>
       <c r="I1022" s="3">
-        <v>6000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
@@ -33684,10 +33670,10 @@
         <v>11</v>
       </c>
       <c r="E1023" s="1" t="s">
-        <v>550</v>
+        <v>808</v>
       </c>
       <c r="F1023" s="1" t="s">
-        <v>551</v>
+        <v>265</v>
       </c>
       <c r="G1023" s="10" t="s">
         <v>904</v>
@@ -33696,7 +33682,7 @@
         <v>0</v>
       </c>
       <c r="I1023" s="3">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
@@ -33713,10 +33699,10 @@
         <v>11</v>
       </c>
       <c r="E1024" s="1" t="s">
-        <v>552</v>
+        <v>431</v>
       </c>
       <c r="F1024" s="1" t="s">
-        <v>553</v>
+        <v>432</v>
       </c>
       <c r="G1024" s="10" t="s">
         <v>904</v>
@@ -33725,7 +33711,7 @@
         <v>0</v>
       </c>
       <c r="I1024" s="3">
-        <v>7524</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
@@ -33742,19 +33728,19 @@
         <v>11</v>
       </c>
       <c r="E1025" s="1" t="s">
-        <v>554</v>
+        <v>465</v>
       </c>
       <c r="F1025" s="1" t="s">
-        <v>203</v>
+        <v>466</v>
       </c>
       <c r="G1025" s="10" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="H1025" s="2">
-        <v>24001.84</v>
+        <v>0</v>
       </c>
       <c r="I1025" s="3">
-        <v>48000</v>
+        <v>23940</v>
       </c>
     </row>
     <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
@@ -33771,19 +33757,19 @@
         <v>11</v>
       </c>
       <c r="E1026" s="1" t="s">
-        <v>811</v>
+        <v>508</v>
       </c>
       <c r="F1026" s="1" t="s">
-        <v>812</v>
+        <v>509</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1026" s="2">
-        <v>0</v>
+        <v>47839.21</v>
       </c>
       <c r="I1026" s="3">
-        <v>3468</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
@@ -33800,19 +33786,19 @@
         <v>11</v>
       </c>
       <c r="E1027" s="1" t="s">
-        <v>626</v>
+        <v>518</v>
       </c>
       <c r="F1027" s="1" t="s">
-        <v>364</v>
+        <v>519</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="H1027" s="2">
-        <v>0</v>
+        <v>5140.8</v>
       </c>
       <c r="I1027" s="3">
-        <v>24000</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
@@ -33829,19 +33815,19 @@
         <v>11</v>
       </c>
       <c r="E1028" s="1" t="s">
-        <v>641</v>
+        <v>520</v>
       </c>
       <c r="F1028" s="1" t="s">
-        <v>642</v>
+        <v>521</v>
       </c>
       <c r="G1028" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H1028" s="2">
         <v>0</v>
       </c>
       <c r="I1028" s="3">
-        <v>24000</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
@@ -33858,19 +33844,19 @@
         <v>11</v>
       </c>
       <c r="E1029" s="1" t="s">
-        <v>658</v>
+        <v>524</v>
       </c>
       <c r="F1029" s="1" t="s">
-        <v>659</v>
+        <v>525</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H1029" s="2">
-        <v>48078.07</v>
+        <v>0</v>
       </c>
       <c r="I1029" s="3">
-        <v>216000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
@@ -33887,19 +33873,19 @@
         <v>11</v>
       </c>
       <c r="E1030" s="1" t="s">
-        <v>954</v>
+        <v>550</v>
       </c>
       <c r="F1030" s="1" t="s">
-        <v>955</v>
+        <v>551</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="H1030" s="2">
         <v>0</v>
       </c>
       <c r="I1030" s="3">
-        <v>1000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
@@ -33916,19 +33902,19 @@
         <v>11</v>
       </c>
       <c r="E1031" s="1" t="s">
-        <v>831</v>
+        <v>552</v>
       </c>
       <c r="F1031" s="1" t="s">
-        <v>796</v>
+        <v>553</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H1031" s="2">
         <v>0</v>
       </c>
       <c r="I1031" s="3">
-        <v>4900</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
@@ -33939,25 +33925,25 @@
         <v>187</v>
       </c>
       <c r="C1032" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="D1032" s="1" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E1032" s="1" t="s">
-        <v>192</v>
+        <v>554</v>
       </c>
       <c r="F1032" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H1032" s="2">
-        <v>9012.26</v>
+        <v>24001.84</v>
       </c>
       <c r="I1032" s="3">
-        <v>81640</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
@@ -33968,25 +33954,25 @@
         <v>187</v>
       </c>
       <c r="C1033" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="D1033" s="1" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E1033" s="1" t="s">
-        <v>196</v>
+        <v>811</v>
       </c>
       <c r="F1033" s="1" t="s">
-        <v>197</v>
+        <v>812</v>
       </c>
       <c r="G1033" s="10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H1033" s="2">
-        <v>24896.94</v>
+        <v>0</v>
       </c>
       <c r="I1033" s="3">
-        <v>308559</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
@@ -33997,25 +33983,25 @@
         <v>187</v>
       </c>
       <c r="C1034" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="D1034" s="1" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E1034" s="1" t="s">
-        <v>198</v>
+        <v>626</v>
       </c>
       <c r="F1034" s="1" t="s">
-        <v>199</v>
+        <v>364</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1034" s="2">
         <v>0</v>
       </c>
       <c r="I1034" s="3">
-        <v>11556</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
@@ -34026,25 +34012,25 @@
         <v>187</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E1035" s="1" t="s">
-        <v>200</v>
+        <v>641</v>
       </c>
       <c r="F1035" s="1" t="s">
-        <v>201</v>
+        <v>642</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="H1035" s="2">
         <v>0</v>
       </c>
       <c r="I1035" s="3">
-        <v>192000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
@@ -34055,25 +34041,25 @@
         <v>187</v>
       </c>
       <c r="C1036" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="D1036" s="1" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E1036" s="1" t="s">
-        <v>210</v>
+        <v>658</v>
       </c>
       <c r="F1036" s="1" t="s">
-        <v>211</v>
+        <v>659</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="H1036" s="2">
-        <v>16861.169999999998</v>
+        <v>24013.57</v>
       </c>
       <c r="I1036" s="3">
-        <v>113235</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
@@ -34084,25 +34070,25 @@
         <v>187</v>
       </c>
       <c r="C1037" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="D1037" s="1" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E1037" s="1" t="s">
-        <v>212</v>
+        <v>954</v>
       </c>
       <c r="F1037" s="1" t="s">
-        <v>213</v>
+        <v>955</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H1037" s="2">
-        <v>9723.73</v>
+        <v>0</v>
       </c>
       <c r="I1037" s="3">
-        <v>197300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
@@ -34113,25 +34099,25 @@
         <v>187</v>
       </c>
       <c r="C1038" s="1" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="D1038" s="1" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E1038" s="1" t="s">
-        <v>214</v>
+        <v>831</v>
       </c>
       <c r="F1038" s="1" t="s">
-        <v>215</v>
+        <v>796</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1038" s="2">
         <v>0</v>
       </c>
       <c r="I1038" s="3">
-        <v>48380</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
@@ -34148,19 +34134,19 @@
         <v>195</v>
       </c>
       <c r="E1039" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="F1039" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="H1039" s="2">
-        <v>0</v>
+        <v>9012.26</v>
       </c>
       <c r="I1039" s="3">
-        <v>9000</v>
+        <v>81640</v>
       </c>
     </row>
     <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
@@ -34177,19 +34163,19 @@
         <v>195</v>
       </c>
       <c r="E1040" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="F1040" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="G1040" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1040" s="2">
-        <v>14063.98</v>
+        <v>35690.019999999997</v>
       </c>
       <c r="I1040" s="3">
-        <v>189992</v>
+        <v>308559</v>
       </c>
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
@@ -34206,10 +34192,10 @@
         <v>195</v>
       </c>
       <c r="E1041" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F1041" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="G1041" s="10" t="s">
         <v>902</v>
@@ -34218,7 +34204,7 @@
         <v>0</v>
       </c>
       <c r="I1041" s="3">
-        <v>16000</v>
+        <v>11556</v>
       </c>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
@@ -34235,19 +34221,19 @@
         <v>195</v>
       </c>
       <c r="E1042" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F1042" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="H1042" s="2">
         <v>0</v>
       </c>
       <c r="I1042" s="3">
-        <v>15000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
@@ -34264,19 +34250,19 @@
         <v>195</v>
       </c>
       <c r="E1043" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F1043" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1043" s="2">
-        <v>0</v>
+        <v>20363.82</v>
       </c>
       <c r="I1043" s="3">
-        <v>8000</v>
+        <v>113235</v>
       </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
@@ -34293,19 +34279,19 @@
         <v>195</v>
       </c>
       <c r="E1044" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F1044" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G1044" s="10" t="s">
         <v>901</v>
       </c>
       <c r="H1044" s="2">
-        <v>0</v>
+        <v>13625.01</v>
       </c>
       <c r="I1044" s="3">
-        <v>12000</v>
+        <v>197300</v>
       </c>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
@@ -34322,19 +34308,19 @@
         <v>195</v>
       </c>
       <c r="E1045" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F1045" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="H1045" s="2">
         <v>0</v>
       </c>
       <c r="I1045" s="3">
-        <v>2000</v>
+        <v>48380</v>
       </c>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
@@ -34351,19 +34337,19 @@
         <v>195</v>
       </c>
       <c r="E1046" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F1046" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="H1046" s="2">
         <v>0</v>
       </c>
       <c r="I1046" s="3">
-        <v>1333</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
@@ -34380,19 +34366,19 @@
         <v>195</v>
       </c>
       <c r="E1047" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F1047" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G1047" s="10" t="s">
         <v>899</v>
       </c>
       <c r="H1047" s="2">
-        <v>0</v>
+        <v>14063.98</v>
       </c>
       <c r="I1047" s="3">
-        <v>6000</v>
+        <v>189992</v>
       </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
@@ -34409,19 +34395,19 @@
         <v>195</v>
       </c>
       <c r="E1048" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F1048" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1048" s="2">
-        <v>801.58</v>
+        <v>5017.4399999999996</v>
       </c>
       <c r="I1048" s="3">
-        <v>6800</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
@@ -34438,19 +34424,19 @@
         <v>195</v>
       </c>
       <c r="E1049" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F1049" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H1049" s="2">
         <v>0</v>
       </c>
       <c r="I1049" s="3">
-        <v>7000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
@@ -34467,19 +34453,19 @@
         <v>195</v>
       </c>
       <c r="E1050" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F1050" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="H1050" s="2">
         <v>0</v>
       </c>
       <c r="I1050" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
@@ -34496,19 +34482,19 @@
         <v>195</v>
       </c>
       <c r="E1051" s="1" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="F1051" s="1" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1051" s="2">
         <v>0</v>
       </c>
       <c r="I1051" s="3">
-        <v>5000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
@@ -34525,19 +34511,19 @@
         <v>195</v>
       </c>
       <c r="E1052" s="1" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F1052" s="1" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="H1052" s="2">
         <v>0</v>
       </c>
       <c r="I1052" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
@@ -34554,19 +34540,19 @@
         <v>195</v>
       </c>
       <c r="E1053" s="1" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="F1053" s="1" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H1053" s="2">
         <v>0</v>
       </c>
       <c r="I1053" s="3">
-        <v>9000</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
@@ -34583,10 +34569,10 @@
         <v>195</v>
       </c>
       <c r="E1054" s="1" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="F1054" s="1" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="G1054" s="10" t="s">
         <v>899</v>
@@ -34612,19 +34598,19 @@
         <v>195</v>
       </c>
       <c r="E1055" s="1" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="F1055" s="1" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="G1055" s="10" t="s">
         <v>901</v>
       </c>
       <c r="H1055" s="2">
-        <v>0</v>
+        <v>1519.53</v>
       </c>
       <c r="I1055" s="3">
-        <v>5000</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
@@ -34641,19 +34627,19 @@
         <v>195</v>
       </c>
       <c r="E1056" s="1" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="F1056" s="1" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="H1056" s="2">
         <v>0</v>
       </c>
       <c r="I1056" s="3">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
@@ -34670,19 +34656,19 @@
         <v>195</v>
       </c>
       <c r="E1057" s="1" t="s">
-        <v>441</v>
+        <v>242</v>
       </c>
       <c r="F1057" s="1" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H1057" s="2">
         <v>0</v>
       </c>
       <c r="I1057" s="3">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
@@ -34699,19 +34685,19 @@
         <v>195</v>
       </c>
       <c r="E1058" s="1" t="s">
-        <v>443</v>
+        <v>268</v>
       </c>
       <c r="F1058" s="1" t="s">
-        <v>444</v>
+        <v>269</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1058" s="2">
         <v>0</v>
       </c>
       <c r="I1058" s="3">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
@@ -34728,19 +34714,19 @@
         <v>195</v>
       </c>
       <c r="E1059" s="1" t="s">
-        <v>445</v>
+        <v>270</v>
       </c>
       <c r="F1059" s="1" t="s">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="H1059" s="2">
         <v>0</v>
       </c>
       <c r="I1059" s="3">
-        <v>8000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
@@ -34757,19 +34743,19 @@
         <v>195</v>
       </c>
       <c r="E1060" s="1" t="s">
-        <v>447</v>
+        <v>302</v>
       </c>
       <c r="F1060" s="1" t="s">
-        <v>448</v>
+        <v>303</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H1060" s="2">
-        <v>2503.91</v>
+        <v>2390</v>
       </c>
       <c r="I1060" s="3">
-        <v>20000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
@@ -34786,10 +34772,10 @@
         <v>195</v>
       </c>
       <c r="E1061" s="1" t="s">
-        <v>449</v>
+        <v>326</v>
       </c>
       <c r="F1061" s="1" t="s">
-        <v>450</v>
+        <v>327</v>
       </c>
       <c r="G1061" s="10" t="s">
         <v>899</v>
@@ -34815,10 +34801,10 @@
         <v>195</v>
       </c>
       <c r="E1062" s="1" t="s">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="F1062" s="1" t="s">
-        <v>473</v>
+        <v>336</v>
       </c>
       <c r="G1062" s="10" t="s">
         <v>901</v>
@@ -34827,7 +34813,7 @@
         <v>0</v>
       </c>
       <c r="I1062" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
@@ -34844,19 +34830,19 @@
         <v>195</v>
       </c>
       <c r="E1063" s="1" t="s">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="F1063" s="1" t="s">
-        <v>475</v>
+        <v>338</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="H1063" s="2">
-        <v>0</v>
+        <v>873.27</v>
       </c>
       <c r="I1063" s="3">
-        <v>12000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
@@ -34873,10 +34859,10 @@
         <v>195</v>
       </c>
       <c r="E1064" s="1" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="F1064" s="1" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="G1064" s="10" t="s">
         <v>901</v>
@@ -34885,7 +34871,7 @@
         <v>0</v>
       </c>
       <c r="I1064" s="3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
@@ -34902,19 +34888,19 @@
         <v>195</v>
       </c>
       <c r="E1065" s="1" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="F1065" s="1" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="G1065" s="10" t="s">
         <v>901</v>
       </c>
       <c r="H1065" s="2">
-        <v>0</v>
+        <v>6073.43</v>
       </c>
       <c r="I1065" s="3">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
@@ -34931,19 +34917,19 @@
         <v>195</v>
       </c>
       <c r="E1066" s="1" t="s">
-        <v>506</v>
+        <v>445</v>
       </c>
       <c r="F1066" s="1" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H1066" s="2">
-        <v>8854.6299999999992</v>
+        <v>0</v>
       </c>
       <c r="I1066" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
@@ -34960,19 +34946,19 @@
         <v>195</v>
       </c>
       <c r="E1067" s="1" t="s">
-        <v>544</v>
+        <v>447</v>
       </c>
       <c r="F1067" s="1" t="s">
-        <v>545</v>
+        <v>448</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1067" s="2">
-        <v>0</v>
+        <v>5016.67</v>
       </c>
       <c r="I1067" s="3">
-        <v>2000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
@@ -34989,19 +34975,19 @@
         <v>195</v>
       </c>
       <c r="E1068" s="1" t="s">
-        <v>557</v>
+        <v>449</v>
       </c>
       <c r="F1068" s="1" t="s">
-        <v>558</v>
+        <v>450</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="H1068" s="2">
         <v>0</v>
       </c>
       <c r="I1068" s="3">
-        <v>8572</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
@@ -35018,19 +35004,19 @@
         <v>195</v>
       </c>
       <c r="E1069" s="1" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="F1069" s="1" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="G1069" s="10" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="H1069" s="2">
         <v>0</v>
       </c>
       <c r="I1069" s="3">
-        <v>24000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
@@ -35047,10 +35033,10 @@
         <v>195</v>
       </c>
       <c r="E1070" s="1" t="s">
-        <v>578</v>
+        <v>474</v>
       </c>
       <c r="F1070" s="1" t="s">
-        <v>579</v>
+        <v>475</v>
       </c>
       <c r="G1070" s="10" t="s">
         <v>901</v>
@@ -35059,7 +35045,7 @@
         <v>0</v>
       </c>
       <c r="I1070" s="3">
-        <v>5000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
@@ -35076,10 +35062,10 @@
         <v>195</v>
       </c>
       <c r="E1071" s="1" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="F1071" s="1" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="G1071" s="10" t="s">
         <v>901</v>
@@ -35088,7 +35074,7 @@
         <v>0</v>
       </c>
       <c r="I1071" s="3">
-        <v>47000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
@@ -35105,19 +35091,19 @@
         <v>195</v>
       </c>
       <c r="E1072" s="1" t="s">
-        <v>602</v>
+        <v>488</v>
       </c>
       <c r="F1072" s="1" t="s">
-        <v>603</v>
+        <v>489</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H1072" s="2">
         <v>0</v>
       </c>
       <c r="I1072" s="3">
-        <v>20532</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
@@ -35134,19 +35120,19 @@
         <v>195</v>
       </c>
       <c r="E1073" s="1" t="s">
-        <v>631</v>
+        <v>506</v>
       </c>
       <c r="F1073" s="1" t="s">
-        <v>632</v>
+        <v>507</v>
       </c>
       <c r="G1073" s="10" t="s">
         <v>901</v>
       </c>
       <c r="H1073" s="2">
-        <v>0</v>
+        <v>17875.07</v>
       </c>
       <c r="I1073" s="3">
-        <v>7000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
@@ -35163,19 +35149,19 @@
         <v>195</v>
       </c>
       <c r="E1074" s="1" t="s">
-        <v>633</v>
+        <v>544</v>
       </c>
       <c r="F1074" s="1" t="s">
-        <v>634</v>
+        <v>545</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1074" s="2">
-        <v>6009.41</v>
+        <v>0</v>
       </c>
       <c r="I1074" s="3">
-        <v>40796</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
@@ -35192,19 +35178,19 @@
         <v>195</v>
       </c>
       <c r="E1075" s="1" t="s">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="F1075" s="1" t="s">
-        <v>636</v>
+        <v>558</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="H1075" s="2">
-        <v>0</v>
+        <v>4000.69</v>
       </c>
       <c r="I1075" s="3">
-        <v>9500</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
@@ -35221,19 +35207,19 @@
         <v>195</v>
       </c>
       <c r="E1076" s="1" t="s">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="F1076" s="1" t="s">
-        <v>638</v>
+        <v>568</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="H1076" s="2">
         <v>0</v>
       </c>
       <c r="I1076" s="3">
-        <v>41657</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
@@ -35250,19 +35236,19 @@
         <v>195</v>
       </c>
       <c r="E1077" s="1" t="s">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="F1077" s="1" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="H1077" s="2">
         <v>0</v>
       </c>
       <c r="I1077" s="3">
-        <v>48000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
@@ -35279,19 +35265,19 @@
         <v>195</v>
       </c>
       <c r="E1078" s="1" t="s">
-        <v>664</v>
+        <v>596</v>
       </c>
       <c r="F1078" s="1" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="H1078" s="2">
-        <v>0</v>
+        <v>12314.97</v>
       </c>
       <c r="I1078" s="3">
-        <v>2000</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
@@ -35308,19 +35294,19 @@
         <v>195</v>
       </c>
       <c r="E1079" s="1" t="s">
-        <v>863</v>
+        <v>602</v>
       </c>
       <c r="F1079" s="1" t="s">
-        <v>864</v>
+        <v>603</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H1079" s="2">
         <v>0</v>
       </c>
       <c r="I1079" s="3">
-        <v>40000</v>
+        <v>20532</v>
       </c>
     </row>
     <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
@@ -35331,25 +35317,25 @@
         <v>187</v>
       </c>
       <c r="C1080" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E1080" s="1" t="s">
-        <v>343</v>
+        <v>631</v>
       </c>
       <c r="F1080" s="1" t="s">
-        <v>344</v>
+        <v>632</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H1080" s="2">
         <v>0</v>
       </c>
       <c r="I1080" s="3">
-        <v>144380</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
@@ -35360,25 +35346,25 @@
         <v>187</v>
       </c>
       <c r="C1081" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D1081" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E1081" s="1" t="s">
-        <v>345</v>
+        <v>633</v>
       </c>
       <c r="F1081" s="1" t="s">
-        <v>346</v>
+        <v>634</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="H1081" s="2">
-        <v>193960</v>
+        <v>6009.41</v>
       </c>
       <c r="I1081" s="3">
-        <v>536660</v>
+        <v>40796</v>
       </c>
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
@@ -35389,25 +35375,25 @@
         <v>187</v>
       </c>
       <c r="C1082" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D1082" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E1082" s="1" t="s">
-        <v>347</v>
+        <v>635</v>
       </c>
       <c r="F1082" s="1" t="s">
-        <v>323</v>
+        <v>636</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="H1082" s="2">
-        <v>169122.17</v>
+        <v>0</v>
       </c>
       <c r="I1082" s="3">
-        <v>242006.46</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
@@ -35418,25 +35404,25 @@
         <v>187</v>
       </c>
       <c r="C1083" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D1083" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E1083" s="1" t="s">
-        <v>348</v>
+        <v>637</v>
       </c>
       <c r="F1083" s="1" t="s">
-        <v>349</v>
+        <v>638</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H1083" s="2">
-        <v>66260</v>
+        <v>0</v>
       </c>
       <c r="I1083" s="3">
-        <v>98040</v>
+        <v>41657</v>
       </c>
     </row>
     <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
@@ -35447,25 +35433,25 @@
         <v>187</v>
       </c>
       <c r="C1084" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D1084" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E1084" s="1" t="s">
-        <v>350</v>
+        <v>655</v>
       </c>
       <c r="F1084" s="1" t="s">
-        <v>351</v>
+        <v>568</v>
       </c>
       <c r="G1084" s="10" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="H1084" s="2">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="I1084" s="3">
-        <v>25000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1085" spans="1:9" x14ac:dyDescent="0.25">
@@ -35476,25 +35462,25 @@
         <v>187</v>
       </c>
       <c r="C1085" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D1085" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E1085" s="1" t="s">
-        <v>352</v>
+        <v>664</v>
       </c>
       <c r="F1085" s="1" t="s">
-        <v>353</v>
+        <v>583</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="H1085" s="2">
-        <v>48200</v>
+        <v>0</v>
       </c>
       <c r="I1085" s="3">
-        <v>72840</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
@@ -35505,25 +35491,25 @@
         <v>187</v>
       </c>
       <c r="C1086" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D1086" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E1086" s="1" t="s">
-        <v>354</v>
+        <v>863</v>
       </c>
       <c r="F1086" s="1" t="s">
-        <v>355</v>
+        <v>864</v>
       </c>
       <c r="G1086" s="10" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H1086" s="2">
-        <v>24014.79</v>
+        <v>0</v>
       </c>
       <c r="I1086" s="3">
-        <v>69796.259999999995</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
@@ -35540,19 +35526,19 @@
         <v>31</v>
       </c>
       <c r="E1087" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F1087" s="1" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G1087" s="10" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="H1087" s="2">
-        <v>73993.460000000006</v>
+        <v>0</v>
       </c>
       <c r="I1087" s="3">
-        <v>172570.56</v>
+        <v>144380</v>
       </c>
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
@@ -35569,19 +35555,19 @@
         <v>31</v>
       </c>
       <c r="E1088" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F1088" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G1088" s="10" t="s">
         <v>897</v>
       </c>
       <c r="H1088" s="2">
-        <v>219024</v>
+        <v>266900</v>
       </c>
       <c r="I1088" s="3">
-        <v>484092</v>
+        <v>536660</v>
       </c>
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
@@ -35598,19 +35584,19 @@
         <v>31</v>
       </c>
       <c r="E1089" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F1089" s="1" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="G1089" s="10" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="H1089" s="2">
-        <v>319266</v>
+        <v>169122.17</v>
       </c>
       <c r="I1089" s="3">
-        <v>709218</v>
+        <v>242006.46</v>
       </c>
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
@@ -35627,19 +35613,19 @@
         <v>31</v>
       </c>
       <c r="E1090" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F1090" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G1090" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1090" s="2">
-        <v>24400</v>
+        <v>96880</v>
       </c>
       <c r="I1090" s="3">
-        <v>97220</v>
+        <v>98040</v>
       </c>
     </row>
     <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
@@ -35656,19 +35642,19 @@
         <v>31</v>
       </c>
       <c r="E1091" s="1" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="F1091" s="1" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="G1091" s="10" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="H1091" s="2">
         <v>0</v>
       </c>
       <c r="I1091" s="3">
-        <v>37000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1092" spans="1:9" x14ac:dyDescent="0.25">
@@ -35685,19 +35671,19 @@
         <v>31</v>
       </c>
       <c r="E1092" s="1" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="F1092" s="1" t="s">
-        <v>203</v>
+        <v>353</v>
       </c>
       <c r="G1092" s="10" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="H1092" s="2">
-        <v>48920</v>
+        <v>72260</v>
       </c>
       <c r="I1092" s="3">
-        <v>71680</v>
+        <v>72840</v>
       </c>
     </row>
     <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
@@ -35714,19 +35700,19 @@
         <v>31</v>
       </c>
       <c r="E1093" s="1" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="F1093" s="1" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="G1093" s="10" t="s">
         <v>910</v>
       </c>
       <c r="H1093" s="2">
-        <v>24000</v>
+        <v>24014.79</v>
       </c>
       <c r="I1093" s="3">
-        <v>46010</v>
+        <v>69796.259999999995</v>
       </c>
     </row>
     <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
@@ -35743,19 +35729,19 @@
         <v>31</v>
       </c>
       <c r="E1094" s="1" t="s">
-        <v>807</v>
+        <v>356</v>
       </c>
       <c r="F1094" s="1" t="s">
-        <v>566</v>
+        <v>301</v>
       </c>
       <c r="G1094" s="10" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="H1094" s="2">
-        <v>23966.27</v>
+        <v>73993.460000000006</v>
       </c>
       <c r="I1094" s="3">
-        <v>72072.850000000006</v>
+        <v>172570.56</v>
       </c>
     </row>
     <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
@@ -35772,19 +35758,19 @@
         <v>31</v>
       </c>
       <c r="E1095" s="1" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="F1095" s="1" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="G1095" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1095" s="2">
-        <v>0</v>
+        <v>242424</v>
       </c>
       <c r="I1095" s="3">
-        <v>24770</v>
+        <v>484092</v>
       </c>
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
@@ -35801,19 +35787,19 @@
         <v>31</v>
       </c>
       <c r="E1096" s="1" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="F1096" s="1" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="G1096" s="10" t="s">
         <v>897</v>
       </c>
       <c r="H1096" s="2">
-        <v>71730</v>
+        <v>367074</v>
       </c>
       <c r="I1096" s="3">
-        <v>168420</v>
+        <v>709218</v>
       </c>
     </row>
     <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
@@ -35830,19 +35816,19 @@
         <v>31</v>
       </c>
       <c r="E1097" s="1" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="F1097" s="1" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="G1097" s="10" t="s">
         <v>897</v>
       </c>
       <c r="H1097" s="2">
-        <v>73134</v>
+        <v>24400</v>
       </c>
       <c r="I1097" s="3">
-        <v>219618</v>
+        <v>97220</v>
       </c>
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
@@ -35859,19 +35845,19 @@
         <v>31</v>
       </c>
       <c r="E1098" s="1" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F1098" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="G1098" s="10" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="H1098" s="2">
-        <v>121219.9</v>
+        <v>0</v>
       </c>
       <c r="I1098" s="3">
-        <v>194869.9</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
@@ -35888,19 +35874,19 @@
         <v>31</v>
       </c>
       <c r="E1099" s="1" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="F1099" s="1" t="s">
-        <v>417</v>
+        <v>203</v>
       </c>
       <c r="G1099" s="10" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H1099" s="2">
-        <v>72410</v>
+        <v>72580</v>
       </c>
       <c r="I1099" s="3">
-        <v>119520</v>
+        <v>71680</v>
       </c>
     </row>
     <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
@@ -35917,19 +35903,19 @@
         <v>31</v>
       </c>
       <c r="E1100" s="1" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="F1100" s="1" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="G1100" s="10" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1100" s="2">
-        <v>490246.78</v>
+        <v>24000</v>
       </c>
       <c r="I1100" s="3">
-        <v>1026488.84</v>
+        <v>46010</v>
       </c>
     </row>
     <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
@@ -35946,19 +35932,19 @@
         <v>31</v>
       </c>
       <c r="E1101" s="1" t="s">
-        <v>421</v>
+        <v>807</v>
       </c>
       <c r="F1101" s="1" t="s">
-        <v>422</v>
+        <v>566</v>
       </c>
       <c r="G1101" s="10" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="H1101" s="2">
-        <v>0</v>
+        <v>23966.27</v>
       </c>
       <c r="I1101" s="3">
-        <v>49014</v>
+        <v>72072.850000000006</v>
       </c>
     </row>
     <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
@@ -35975,19 +35961,19 @@
         <v>31</v>
       </c>
       <c r="E1102" s="1" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="F1102" s="1" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G1102" s="10" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H1102" s="2">
-        <v>2200.81</v>
+        <v>24390</v>
       </c>
       <c r="I1102" s="3">
-        <v>31416.5</v>
+        <v>24770</v>
       </c>
     </row>
     <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
@@ -36004,19 +35990,19 @@
         <v>31</v>
       </c>
       <c r="E1103" s="1" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="F1103" s="1" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="H1103" s="2">
-        <v>215686.24</v>
+        <v>71730</v>
       </c>
       <c r="I1103" s="3">
-        <v>526395.05000000005</v>
+        <v>168420</v>
       </c>
     </row>
     <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
@@ -36033,19 +36019,19 @@
         <v>31</v>
       </c>
       <c r="E1104" s="1" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="F1104" s="1" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="G1104" s="10" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="H1104" s="2">
-        <v>0</v>
+        <v>98136</v>
       </c>
       <c r="I1104" s="3">
-        <v>24103.63</v>
+        <v>219618</v>
       </c>
     </row>
     <row r="1105" spans="1:9" x14ac:dyDescent="0.25">
@@ -36062,19 +36048,19 @@
         <v>31</v>
       </c>
       <c r="E1105" s="1" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="F1105" s="1" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="G1105" s="10" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="H1105" s="2">
-        <v>73764.23</v>
+        <v>146220.84</v>
       </c>
       <c r="I1105" s="3">
-        <v>98765.4</v>
+        <v>194869.9</v>
       </c>
     </row>
     <row r="1106" spans="1:9" x14ac:dyDescent="0.25">
@@ -36091,19 +36077,19 @@
         <v>31</v>
       </c>
       <c r="E1106" s="1" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="F1106" s="1" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="G1106" s="10" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="H1106" s="2">
-        <v>0</v>
+        <v>72410</v>
       </c>
       <c r="I1106" s="3">
-        <v>24000</v>
+        <v>119520</v>
       </c>
     </row>
     <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
@@ -36120,19 +36106,19 @@
         <v>31</v>
       </c>
       <c r="E1107" s="1" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="F1107" s="1" t="s">
-        <v>456</v>
+        <v>221</v>
       </c>
       <c r="G1107" s="10" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="H1107" s="2">
-        <v>48147.01</v>
+        <v>563645.34</v>
       </c>
       <c r="I1107" s="3">
-        <v>167217.78</v>
+        <v>1026488.84</v>
       </c>
     </row>
     <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
@@ -36149,19 +36135,19 @@
         <v>31</v>
       </c>
       <c r="E1108" s="1" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="F1108" s="1" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="G1108" s="10" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H1108" s="2">
-        <v>23900</v>
+        <v>0</v>
       </c>
       <c r="I1108" s="3">
-        <v>72160</v>
+        <v>49014</v>
       </c>
     </row>
     <row r="1109" spans="1:9" x14ac:dyDescent="0.25">
@@ -36178,19 +36164,19 @@
         <v>31</v>
       </c>
       <c r="E1109" s="1" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="F1109" s="1" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="H1109" s="2">
-        <v>72150</v>
+        <v>7553.02</v>
       </c>
       <c r="I1109" s="3">
-        <v>144340</v>
+        <v>31416.5</v>
       </c>
     </row>
     <row r="1110" spans="1:9" x14ac:dyDescent="0.25">
@@ -36207,19 +36193,19 @@
         <v>31</v>
       </c>
       <c r="E1110" s="1" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="F1110" s="1" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="G1110" s="10" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="H1110" s="2">
-        <v>24430</v>
+        <v>287015.39</v>
       </c>
       <c r="I1110" s="3">
-        <v>145380</v>
+        <v>526395.05000000005</v>
       </c>
     </row>
     <row r="1111" spans="1:9" x14ac:dyDescent="0.25">
@@ -36236,19 +36222,19 @@
         <v>31</v>
       </c>
       <c r="E1111" s="1" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="F1111" s="1" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="G1111" s="10" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="H1111" s="2">
-        <v>49400</v>
+        <v>24103.63</v>
       </c>
       <c r="I1111" s="3">
-        <v>73260</v>
+        <v>24103.63</v>
       </c>
     </row>
     <row r="1112" spans="1:9" x14ac:dyDescent="0.25">
@@ -36265,19 +36251,19 @@
         <v>31</v>
       </c>
       <c r="E1112" s="1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="F1112" s="1" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="G1112" s="10" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H1112" s="2">
-        <v>122786.8</v>
+        <v>98768.23</v>
       </c>
       <c r="I1112" s="3">
-        <v>172987.3</v>
+        <v>98765.4</v>
       </c>
     </row>
     <row r="1113" spans="1:9" x14ac:dyDescent="0.25">
@@ -36294,19 +36280,19 @@
         <v>31</v>
       </c>
       <c r="E1113" s="1" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="F1113" s="1" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="G1113" s="10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H1113" s="2">
-        <v>9587.08</v>
+        <v>0</v>
       </c>
       <c r="I1113" s="3">
-        <v>19204.439999999999</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1114" spans="1:9" x14ac:dyDescent="0.25">
@@ -36323,19 +36309,19 @@
         <v>31</v>
       </c>
       <c r="E1114" s="1" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="F1114" s="1" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="G1114" s="10" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="H1114" s="2">
-        <v>22155</v>
+        <v>71501.320000000007</v>
       </c>
       <c r="I1114" s="3">
-        <v>201075</v>
+        <v>167217.78</v>
       </c>
     </row>
     <row r="1115" spans="1:9" x14ac:dyDescent="0.25">
@@ -36352,19 +36338,19 @@
         <v>31</v>
       </c>
       <c r="E1115" s="1" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="F1115" s="1" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="H1115" s="2">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="I1115" s="3">
-        <v>136380</v>
+        <v>72160</v>
       </c>
     </row>
     <row r="1116" spans="1:9" x14ac:dyDescent="0.25">
@@ -36381,19 +36367,19 @@
         <v>31</v>
       </c>
       <c r="E1116" s="1" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="F1116" s="1" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="G1116" s="10" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="H1116" s="2">
-        <v>354674.22</v>
+        <v>144340</v>
       </c>
       <c r="I1116" s="3">
-        <v>1036233.84</v>
+        <v>144340</v>
       </c>
     </row>
     <row r="1117" spans="1:9" x14ac:dyDescent="0.25">
@@ -36410,19 +36396,19 @@
         <v>31</v>
       </c>
       <c r="E1117" s="1" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="F1117" s="1" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="G1117" s="10" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="H1117" s="2">
-        <v>45701.04</v>
+        <v>24430</v>
       </c>
       <c r="I1117" s="3">
-        <v>67815.039999999994</v>
+        <v>145380</v>
       </c>
     </row>
     <row r="1118" spans="1:9" x14ac:dyDescent="0.25">
@@ -36439,19 +36425,19 @@
         <v>31</v>
       </c>
       <c r="E1118" s="1" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="F1118" s="1" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="G1118" s="10" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="H1118" s="2">
-        <v>24190</v>
+        <v>49400</v>
       </c>
       <c r="I1118" s="3">
-        <v>214160</v>
+        <v>73260</v>
       </c>
     </row>
     <row r="1119" spans="1:9" x14ac:dyDescent="0.25">
@@ -36468,19 +36454,19 @@
         <v>31</v>
       </c>
       <c r="E1119" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="F1119" s="1" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="G1119" s="10" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="H1119" s="2">
-        <v>97160</v>
+        <v>146963.1</v>
       </c>
       <c r="I1119" s="3">
-        <v>342400</v>
+        <v>172987.3</v>
       </c>
     </row>
     <row r="1120" spans="1:9" x14ac:dyDescent="0.25">
@@ -36497,19 +36483,19 @@
         <v>31</v>
       </c>
       <c r="E1120" s="1" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="F1120" s="1" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="G1120" s="10" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="H1120" s="2">
-        <v>96663.03</v>
+        <v>9587.08</v>
       </c>
       <c r="I1120" s="3">
-        <v>264153.07</v>
+        <v>19204.439999999999</v>
       </c>
     </row>
     <row r="1121" spans="1:9" x14ac:dyDescent="0.25">
@@ -36526,19 +36512,19 @@
         <v>31</v>
       </c>
       <c r="E1121" s="1" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="F1121" s="1" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="G1121" s="10" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H1121" s="2">
-        <v>25002.93</v>
+        <v>133650</v>
       </c>
       <c r="I1121" s="3">
-        <v>71600.320000000007</v>
+        <v>201075</v>
       </c>
     </row>
     <row r="1122" spans="1:9" x14ac:dyDescent="0.25">
@@ -36555,19 +36541,19 @@
         <v>31</v>
       </c>
       <c r="E1122" s="1" t="s">
-        <v>866</v>
+        <v>498</v>
       </c>
       <c r="F1122" s="1" t="s">
-        <v>249</v>
+        <v>499</v>
       </c>
       <c r="G1122" s="10" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="H1122" s="2">
-        <v>1160</v>
+        <v>0</v>
       </c>
       <c r="I1122" s="3">
-        <v>2160</v>
+        <v>136380</v>
       </c>
     </row>
     <row r="1123" spans="1:9" x14ac:dyDescent="0.25">
@@ -36584,18 +36570,20 @@
         <v>31</v>
       </c>
       <c r="E1123" s="1" t="s">
-        <v>956</v>
+        <v>500</v>
       </c>
       <c r="F1123" s="1" t="s">
-        <v>957</v>
+        <v>501</v>
       </c>
       <c r="G1123" s="10" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1123" s="2">
-        <v>25010</v>
-      </c>
-      <c r="I1123" s="3"/>
+        <v>532212.75</v>
+      </c>
+      <c r="I1123" s="3">
+        <v>1036233.84</v>
+      </c>
     </row>
     <row r="1124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1124" s="10" t="s">
@@ -36611,19 +36599,19 @@
         <v>31</v>
       </c>
       <c r="E1124" s="1" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
       <c r="F1124" s="1" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
       <c r="G1124" s="10" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H1124" s="2">
-        <v>23906.1</v>
+        <v>45701.04</v>
       </c>
       <c r="I1124" s="3">
-        <v>72774.89</v>
+        <v>67815.039999999994</v>
       </c>
     </row>
     <row r="1125" spans="1:9" x14ac:dyDescent="0.25">
@@ -36640,19 +36628,19 @@
         <v>31</v>
       </c>
       <c r="E1125" s="1" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
       <c r="F1125" s="1" t="s">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="G1125" s="10" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="H1125" s="2">
-        <v>24460</v>
+        <v>72930</v>
       </c>
       <c r="I1125" s="3">
-        <v>24460</v>
+        <v>214160</v>
       </c>
     </row>
     <row r="1126" spans="1:9" x14ac:dyDescent="0.25">
@@ -36669,19 +36657,19 @@
         <v>31</v>
       </c>
       <c r="E1126" s="1" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="F1126" s="1" t="s">
-        <v>317</v>
+        <v>515</v>
       </c>
       <c r="G1126" s="10" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="H1126" s="2">
-        <v>23700</v>
+        <v>97160</v>
       </c>
       <c r="I1126" s="3">
-        <v>85040</v>
+        <v>342400</v>
       </c>
     </row>
     <row r="1127" spans="1:9" x14ac:dyDescent="0.25">
@@ -36698,19 +36686,19 @@
         <v>31</v>
       </c>
       <c r="E1127" s="1" t="s">
-        <v>817</v>
+        <v>522</v>
       </c>
       <c r="F1127" s="1" t="s">
-        <v>818</v>
+        <v>523</v>
       </c>
       <c r="G1127" s="10" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="H1127" s="2">
-        <v>0</v>
+        <v>121014.12</v>
       </c>
       <c r="I1127" s="3">
-        <v>10065</v>
+        <v>264153.07</v>
       </c>
     </row>
     <row r="1128" spans="1:9" x14ac:dyDescent="0.25">
@@ -36727,19 +36715,19 @@
         <v>31</v>
       </c>
       <c r="E1128" s="1" t="s">
-        <v>582</v>
+        <v>526</v>
       </c>
       <c r="F1128" s="1" t="s">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="G1128" s="10" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H1128" s="2">
-        <v>0</v>
+        <v>25002.93</v>
       </c>
       <c r="I1128" s="3">
-        <v>23100</v>
+        <v>71600.320000000007</v>
       </c>
     </row>
     <row r="1129" spans="1:9" x14ac:dyDescent="0.25">
@@ -36756,19 +36744,19 @@
         <v>31</v>
       </c>
       <c r="E1129" s="1" t="s">
-        <v>586</v>
+        <v>866</v>
       </c>
       <c r="F1129" s="1" t="s">
-        <v>479</v>
+        <v>249</v>
       </c>
       <c r="G1129" s="10" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="H1129" s="2">
-        <v>24299.25</v>
+        <v>1160</v>
       </c>
       <c r="I1129" s="3">
-        <v>24299.25</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
@@ -36785,20 +36773,18 @@
         <v>31</v>
       </c>
       <c r="E1130" s="1" t="s">
-        <v>617</v>
+        <v>956</v>
       </c>
       <c r="F1130" s="1" t="s">
-        <v>618</v>
+        <v>957</v>
       </c>
       <c r="G1130" s="10" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="H1130" s="2">
-        <v>13000</v>
-      </c>
-      <c r="I1130" s="3">
-        <v>24000</v>
-      </c>
+        <v>25010</v>
+      </c>
+      <c r="I1130" s="3"/>
     </row>
     <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1131" s="10" t="s">
@@ -36814,19 +36800,19 @@
         <v>31</v>
       </c>
       <c r="E1131" s="1" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
       <c r="F1131" s="1" t="s">
-        <v>470</v>
+        <v>564</v>
       </c>
       <c r="G1131" s="10" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H1131" s="2">
-        <v>48260</v>
+        <v>23906.1</v>
       </c>
       <c r="I1131" s="3">
-        <v>120820</v>
+        <v>72774.89</v>
       </c>
     </row>
     <row r="1132" spans="1:9" x14ac:dyDescent="0.25">
@@ -36843,19 +36829,19 @@
         <v>31</v>
       </c>
       <c r="E1132" s="1" t="s">
-        <v>645</v>
+        <v>565</v>
       </c>
       <c r="F1132" s="1" t="s">
-        <v>646</v>
+        <v>566</v>
       </c>
       <c r="G1132" s="10" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="H1132" s="2">
-        <v>0</v>
+        <v>24460</v>
       </c>
       <c r="I1132" s="3">
-        <v>32120</v>
+        <v>24460</v>
       </c>
     </row>
     <row r="1133" spans="1:9" x14ac:dyDescent="0.25">
@@ -36872,19 +36858,19 @@
         <v>31</v>
       </c>
       <c r="E1133" s="1" t="s">
-        <v>651</v>
+        <v>571</v>
       </c>
       <c r="F1133" s="1" t="s">
-        <v>652</v>
+        <v>317</v>
       </c>
       <c r="G1133" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1133" s="2">
-        <v>24377.06</v>
+        <v>60700</v>
       </c>
       <c r="I1133" s="3">
-        <v>48377.95</v>
+        <v>85040</v>
       </c>
     </row>
     <row r="1134" spans="1:9" x14ac:dyDescent="0.25">
@@ -36901,19 +36887,19 @@
         <v>31</v>
       </c>
       <c r="E1134" s="1" t="s">
-        <v>653</v>
+        <v>817</v>
       </c>
       <c r="F1134" s="1" t="s">
-        <v>654</v>
+        <v>818</v>
       </c>
       <c r="G1134" s="10" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="H1134" s="2">
-        <v>24285.08</v>
+        <v>825</v>
       </c>
       <c r="I1134" s="3">
-        <v>24285.08</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="1135" spans="1:9" x14ac:dyDescent="0.25">
@@ -36924,25 +36910,25 @@
         <v>187</v>
       </c>
       <c r="C1135" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D1135" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E1135" s="1" t="s">
-        <v>250</v>
+        <v>582</v>
       </c>
       <c r="F1135" s="1" t="s">
-        <v>251</v>
+        <v>583</v>
       </c>
       <c r="G1135" s="10" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="H1135" s="2">
-        <v>22000.39</v>
+        <v>2840</v>
       </c>
       <c r="I1135" s="3">
-        <v>88000.39</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
@@ -36953,25 +36939,25 @@
         <v>187</v>
       </c>
       <c r="C1136" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E1136" s="1" t="s">
-        <v>252</v>
+        <v>586</v>
       </c>
       <c r="F1136" s="1" t="s">
-        <v>253</v>
+        <v>479</v>
       </c>
       <c r="G1136" s="10" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H1136" s="2">
-        <v>44015.82</v>
+        <v>24299.25</v>
       </c>
       <c r="I1136" s="3">
-        <v>88000</v>
+        <v>24299.25</v>
       </c>
     </row>
     <row r="1137" spans="1:9" x14ac:dyDescent="0.25">
@@ -36982,25 +36968,25 @@
         <v>187</v>
       </c>
       <c r="C1137" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D1137" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E1137" s="1" t="s">
-        <v>258</v>
+        <v>617</v>
       </c>
       <c r="F1137" s="1" t="s">
-        <v>259</v>
+        <v>618</v>
       </c>
       <c r="G1137" s="10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H1137" s="2">
-        <v>22002.06</v>
+        <v>21000</v>
       </c>
       <c r="I1137" s="3">
-        <v>44000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1138" spans="1:9" x14ac:dyDescent="0.25">
@@ -37011,25 +36997,25 @@
         <v>187</v>
       </c>
       <c r="C1138" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D1138" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E1138" s="1" t="s">
-        <v>260</v>
+        <v>620</v>
       </c>
       <c r="F1138" s="1" t="s">
-        <v>261</v>
+        <v>470</v>
       </c>
       <c r="G1138" s="10" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H1138" s="2">
-        <v>0</v>
+        <v>72260</v>
       </c>
       <c r="I1138" s="3">
-        <v>22000</v>
+        <v>120820</v>
       </c>
     </row>
     <row r="1139" spans="1:9" x14ac:dyDescent="0.25">
@@ -37040,25 +37026,25 @@
         <v>187</v>
       </c>
       <c r="C1139" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E1139" s="1" t="s">
-        <v>272</v>
+        <v>645</v>
       </c>
       <c r="F1139" s="1" t="s">
-        <v>273</v>
+        <v>646</v>
       </c>
       <c r="G1139" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1139" s="2">
         <v>0</v>
       </c>
       <c r="I1139" s="3">
-        <v>22000</v>
+        <v>32120</v>
       </c>
     </row>
     <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
@@ -37069,25 +37055,25 @@
         <v>187</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D1140" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E1140" s="1" t="s">
-        <v>284</v>
+        <v>651</v>
       </c>
       <c r="F1140" s="1" t="s">
-        <v>285</v>
+        <v>652</v>
       </c>
       <c r="G1140" s="10" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="H1140" s="2">
-        <v>21920.7</v>
+        <v>24377.06</v>
       </c>
       <c r="I1140" s="3">
-        <v>21920.7</v>
+        <v>48377.95</v>
       </c>
     </row>
     <row r="1141" spans="1:9" x14ac:dyDescent="0.25">
@@ -37098,25 +37084,25 @@
         <v>187</v>
       </c>
       <c r="C1141" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E1141" s="1" t="s">
-        <v>304</v>
+        <v>653</v>
       </c>
       <c r="F1141" s="1" t="s">
-        <v>305</v>
+        <v>654</v>
       </c>
       <c r="G1141" s="10" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="H1141" s="2">
-        <v>22000</v>
+        <v>24285.08</v>
       </c>
       <c r="I1141" s="3">
-        <v>66000</v>
+        <v>24285.08</v>
       </c>
     </row>
     <row r="1142" spans="1:9" x14ac:dyDescent="0.25">
@@ -37133,19 +37119,19 @@
         <v>162</v>
       </c>
       <c r="E1142" s="1" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="F1142" s="1" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="G1142" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="H1142" s="2">
-        <v>22000</v>
+        <v>22000.39</v>
       </c>
       <c r="I1142" s="3">
-        <v>44000</v>
+        <v>88000.39</v>
       </c>
     </row>
     <row r="1143" spans="1:9" x14ac:dyDescent="0.25">
@@ -37162,19 +37148,19 @@
         <v>162</v>
       </c>
       <c r="E1143" s="1" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="F1143" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="G1143" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="H1143" s="2">
-        <v>22000</v>
+        <v>44015.82</v>
       </c>
       <c r="I1143" s="3">
-        <v>44000</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="1144" spans="1:9" x14ac:dyDescent="0.25">
@@ -37191,19 +37177,19 @@
         <v>162</v>
       </c>
       <c r="E1144" s="1" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="F1144" s="1" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="G1144" s="10" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="H1144" s="2">
-        <v>0</v>
+        <v>22002.06</v>
       </c>
       <c r="I1144" s="3">
-        <v>5000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
@@ -37220,19 +37206,19 @@
         <v>162</v>
       </c>
       <c r="E1145" s="1" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="F1145" s="1" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="G1145" s="10" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="H1145" s="2">
         <v>0</v>
       </c>
       <c r="I1145" s="3">
-        <v>48000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="1146" spans="1:9" x14ac:dyDescent="0.25">
@@ -37249,19 +37235,19 @@
         <v>162</v>
       </c>
       <c r="E1146" s="1" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="F1146" s="1" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="G1146" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1146" s="2">
-        <v>22000.03</v>
+        <v>0</v>
       </c>
       <c r="I1146" s="3">
-        <v>44000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="1147" spans="1:9" x14ac:dyDescent="0.25">
@@ -37278,19 +37264,19 @@
         <v>162</v>
       </c>
       <c r="E1147" s="1" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="F1147" s="1" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="G1147" s="10" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H1147" s="2">
-        <v>22197.439999999999</v>
+        <v>21920.7</v>
       </c>
       <c r="I1147" s="3">
-        <v>88197.440000000002</v>
+        <v>21920.7</v>
       </c>
     </row>
     <row r="1148" spans="1:9" x14ac:dyDescent="0.25">
@@ -37307,19 +37293,19 @@
         <v>162</v>
       </c>
       <c r="E1148" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="F1148" s="1" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="G1148" s="10" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="H1148" s="2">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="I1148" s="3">
-        <v>44000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
@@ -37336,16 +37322,16 @@
         <v>162</v>
       </c>
       <c r="E1149" s="1" t="s">
-        <v>418</v>
+        <v>306</v>
       </c>
       <c r="F1149" s="1" t="s">
-        <v>419</v>
+        <v>307</v>
       </c>
       <c r="G1149" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1149" s="2">
-        <v>21980</v>
+        <v>22000</v>
       </c>
       <c r="I1149" s="3">
         <v>44000</v>
@@ -37365,19 +37351,19 @@
         <v>162</v>
       </c>
       <c r="E1150" s="1" t="s">
-        <v>809</v>
+        <v>308</v>
       </c>
       <c r="F1150" s="1" t="s">
-        <v>810</v>
+        <v>309</v>
       </c>
       <c r="G1150" s="10" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H1150" s="2">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="I1150" s="3">
-        <v>17000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
@@ -37394,19 +37380,19 @@
         <v>162</v>
       </c>
       <c r="E1151" s="1" t="s">
-        <v>490</v>
+        <v>310</v>
       </c>
       <c r="F1151" s="1" t="s">
-        <v>491</v>
+        <v>311</v>
       </c>
       <c r="G1151" s="10" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H1151" s="2">
         <v>0</v>
       </c>
       <c r="I1151" s="3">
-        <v>22000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1152" spans="1:9" x14ac:dyDescent="0.25">
@@ -37423,19 +37409,19 @@
         <v>162</v>
       </c>
       <c r="E1152" s="1" t="s">
-        <v>540</v>
+        <v>312</v>
       </c>
       <c r="F1152" s="1" t="s">
-        <v>541</v>
+        <v>313</v>
       </c>
       <c r="G1152" s="10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H1152" s="2">
-        <v>65934.559999999998</v>
+        <v>24000</v>
       </c>
       <c r="I1152" s="3">
-        <v>271000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1153" spans="1:9" x14ac:dyDescent="0.25">
@@ -37452,19 +37438,19 @@
         <v>162</v>
       </c>
       <c r="E1153" s="1" t="s">
-        <v>542</v>
+        <v>324</v>
       </c>
       <c r="F1153" s="1" t="s">
-        <v>543</v>
+        <v>325</v>
       </c>
       <c r="G1153" s="10" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="H1153" s="2">
-        <v>110049.26</v>
+        <v>22000.03</v>
       </c>
       <c r="I1153" s="3">
-        <v>289005.27</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
@@ -37481,19 +37467,19 @@
         <v>162</v>
       </c>
       <c r="E1154" s="1" t="s">
-        <v>555</v>
+        <v>339</v>
       </c>
       <c r="F1154" s="1" t="s">
-        <v>556</v>
+        <v>340</v>
       </c>
       <c r="G1154" s="10" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="H1154" s="2">
-        <v>0</v>
+        <v>22197.439999999999</v>
       </c>
       <c r="I1154" s="3">
-        <v>44000</v>
+        <v>88197.440000000002</v>
       </c>
     </row>
     <row r="1155" spans="1:9" x14ac:dyDescent="0.25">
@@ -37510,19 +37496,19 @@
         <v>162</v>
       </c>
       <c r="E1155" s="1" t="s">
-        <v>574</v>
+        <v>341</v>
       </c>
       <c r="F1155" s="1" t="s">
-        <v>575</v>
+        <v>342</v>
       </c>
       <c r="G1155" s="10" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="H1155" s="2">
-        <v>44018.6</v>
+        <v>0</v>
       </c>
       <c r="I1155" s="3">
-        <v>132000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1156" spans="1:9" x14ac:dyDescent="0.25">
@@ -37539,16 +37525,16 @@
         <v>162</v>
       </c>
       <c r="E1156" s="1" t="s">
-        <v>576</v>
+        <v>418</v>
       </c>
       <c r="F1156" s="1" t="s">
-        <v>577</v>
+        <v>419</v>
       </c>
       <c r="G1156" s="10" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H1156" s="2">
-        <v>0</v>
+        <v>21980</v>
       </c>
       <c r="I1156" s="3">
         <v>44000</v>
@@ -37568,19 +37554,19 @@
         <v>162</v>
       </c>
       <c r="E1157" s="1" t="s">
-        <v>580</v>
+        <v>809</v>
       </c>
       <c r="F1157" s="1" t="s">
-        <v>581</v>
+        <v>810</v>
       </c>
       <c r="G1157" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1157" s="2">
         <v>0</v>
       </c>
       <c r="I1157" s="3">
-        <v>22000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1158" spans="1:9" x14ac:dyDescent="0.25">
@@ -37597,19 +37583,19 @@
         <v>162</v>
       </c>
       <c r="E1158" s="1" t="s">
-        <v>958</v>
+        <v>490</v>
       </c>
       <c r="F1158" s="1" t="s">
-        <v>959</v>
+        <v>491</v>
       </c>
       <c r="G1158" s="10" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="H1158" s="2">
         <v>0</v>
       </c>
       <c r="I1158" s="3">
-        <v>44000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="1159" spans="1:9" x14ac:dyDescent="0.25">
@@ -37626,19 +37612,19 @@
         <v>162</v>
       </c>
       <c r="E1159" s="1" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
       <c r="F1159" s="1" t="s">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="G1159" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H1159" s="2">
-        <v>24059.45</v>
+        <v>65934.559999999998</v>
       </c>
       <c r="I1159" s="3">
-        <v>120005.41</v>
+        <v>271000</v>
       </c>
     </row>
     <row r="1160" spans="1:9" x14ac:dyDescent="0.25">
@@ -37655,19 +37641,19 @@
         <v>162</v>
       </c>
       <c r="E1160" s="1" t="s">
-        <v>662</v>
+        <v>542</v>
       </c>
       <c r="F1160" s="1" t="s">
-        <v>301</v>
+        <v>543</v>
       </c>
       <c r="G1160" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H1160" s="2">
-        <v>0</v>
+        <v>110049.26</v>
       </c>
       <c r="I1160" s="3">
-        <v>24000</v>
+        <v>289005.27</v>
       </c>
     </row>
     <row r="1161" spans="1:9" x14ac:dyDescent="0.25">
@@ -37684,19 +37670,19 @@
         <v>162</v>
       </c>
       <c r="E1161" s="1" t="s">
-        <v>929</v>
+        <v>555</v>
       </c>
       <c r="F1161" s="1" t="s">
-        <v>930</v>
+        <v>556</v>
       </c>
       <c r="G1161" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H1161" s="2">
         <v>0</v>
       </c>
       <c r="I1161" s="3">
-        <v>96000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1162" spans="1:9" x14ac:dyDescent="0.25">
@@ -37704,28 +37690,28 @@
         <v>931</v>
       </c>
       <c r="B1162" s="1" t="s">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="C1162" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="E1162" s="1" t="s">
-        <v>686</v>
+        <v>574</v>
       </c>
       <c r="F1162" s="1" t="s">
-        <v>687</v>
+        <v>575</v>
       </c>
       <c r="G1162" s="10" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="H1162" s="2">
-        <v>18143.68</v>
+        <v>44018.6</v>
       </c>
       <c r="I1162" s="3">
-        <v>1024839.31</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="1163" spans="1:9" x14ac:dyDescent="0.25">
@@ -37733,28 +37719,28 @@
         <v>931</v>
       </c>
       <c r="B1163" s="1" t="s">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="C1163" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="E1163" s="1" t="s">
-        <v>690</v>
+        <v>576</v>
       </c>
       <c r="F1163" s="1" t="s">
-        <v>691</v>
+        <v>577</v>
       </c>
       <c r="G1163" s="10" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="H1163" s="2">
-        <v>11756.388000000001</v>
+        <v>0</v>
       </c>
       <c r="I1163" s="3">
-        <v>71373.070000000007</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1164" spans="1:9" x14ac:dyDescent="0.25">
@@ -37762,28 +37748,28 @@
         <v>931</v>
       </c>
       <c r="B1164" s="1" t="s">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="C1164" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="E1164" s="1" t="s">
-        <v>692</v>
+        <v>580</v>
       </c>
       <c r="F1164" s="1" t="s">
-        <v>693</v>
+        <v>581</v>
       </c>
       <c r="G1164" s="10" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="H1164" s="2">
         <v>0</v>
       </c>
       <c r="I1164" s="3">
-        <v>45043.32</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="1165" spans="1:9" x14ac:dyDescent="0.25">
@@ -37791,28 +37777,28 @@
         <v>931</v>
       </c>
       <c r="B1165" s="1" t="s">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="C1165" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="E1165" s="1" t="s">
-        <v>694</v>
+        <v>958</v>
       </c>
       <c r="F1165" s="1" t="s">
-        <v>695</v>
+        <v>959</v>
       </c>
       <c r="G1165" s="10" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="H1165" s="2">
         <v>0</v>
       </c>
       <c r="I1165" s="3">
-        <v>12793.57</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="1166" spans="1:9" x14ac:dyDescent="0.25">
@@ -37820,28 +37806,28 @@
         <v>931</v>
       </c>
       <c r="B1166" s="1" t="s">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="C1166" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D1166" s="1" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="E1166" s="1" t="s">
-        <v>718</v>
+        <v>615</v>
       </c>
       <c r="F1166" s="1" t="s">
-        <v>719</v>
+        <v>616</v>
       </c>
       <c r="G1166" s="10" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="H1166" s="2">
-        <v>0</v>
+        <v>24059.45</v>
       </c>
       <c r="I1166" s="3">
-        <v>17145.78</v>
+        <v>120005.41</v>
       </c>
     </row>
     <row r="1167" spans="1:9" x14ac:dyDescent="0.25">
@@ -37849,28 +37835,28 @@
         <v>931</v>
       </c>
       <c r="B1167" s="1" t="s">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="C1167" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="E1167" s="1" t="s">
-        <v>745</v>
+        <v>662</v>
       </c>
       <c r="F1167" s="1" t="s">
-        <v>746</v>
+        <v>301</v>
       </c>
       <c r="G1167" s="10" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="H1167" s="2">
         <v>0</v>
       </c>
       <c r="I1167" s="3">
-        <v>50370.48</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1168" spans="1:9" x14ac:dyDescent="0.25">
@@ -37878,28 +37864,28 @@
         <v>931</v>
       </c>
       <c r="B1168" s="1" t="s">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="C1168" s="1" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="E1168" s="1" t="s">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="F1168" s="1" t="s">
-        <v>707</v>
+        <v>930</v>
       </c>
       <c r="G1168" s="10" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="H1168" s="2">
         <v>0</v>
       </c>
       <c r="I1168" s="3">
-        <v>24000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="1169" spans="1:9" x14ac:dyDescent="0.25">
@@ -37910,25 +37896,25 @@
         <v>665</v>
       </c>
       <c r="C1169" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1169" s="1" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="F1169" s="1" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G1169" s="10" t="s">
         <v>913</v>
       </c>
       <c r="H1169" s="2">
-        <v>21600</v>
+        <v>78435.129000000001</v>
       </c>
       <c r="I1169" s="3">
-        <v>64800</v>
+        <v>1024839.31</v>
       </c>
     </row>
     <row r="1170" spans="1:9" x14ac:dyDescent="0.25">
@@ -37939,25 +37925,25 @@
         <v>665</v>
       </c>
       <c r="C1170" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1170" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1170" s="1" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="F1170" s="1" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="G1170" s="10" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H1170" s="2">
-        <v>0</v>
+        <v>11756.388000000001</v>
       </c>
       <c r="I1170" s="3">
-        <v>21600</v>
+        <v>71373.070000000007</v>
       </c>
     </row>
     <row r="1171" spans="1:9" x14ac:dyDescent="0.25">
@@ -37968,25 +37954,25 @@
         <v>665</v>
       </c>
       <c r="C1171" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1171" s="1" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="F1171" s="1" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="G1171" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1171" s="2">
         <v>0</v>
       </c>
       <c r="I1171" s="3">
-        <v>48000</v>
+        <v>45043.32</v>
       </c>
     </row>
     <row r="1172" spans="1:9" x14ac:dyDescent="0.25">
@@ -37997,25 +37983,25 @@
         <v>665</v>
       </c>
       <c r="C1172" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1172" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="F1172" s="1" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="G1172" s="10" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="H1172" s="2">
         <v>0</v>
       </c>
       <c r="I1172" s="3">
-        <v>24000</v>
+        <v>12793.57</v>
       </c>
     </row>
     <row r="1173" spans="1:9" x14ac:dyDescent="0.25">
@@ -38026,25 +38012,25 @@
         <v>665</v>
       </c>
       <c r="C1173" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D1173" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E1173" s="1" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="F1173" s="1" t="s">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="G1173" s="10" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="H1173" s="2">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I1173" s="3">
-        <v>240015</v>
+        <v>17145.78</v>
       </c>
     </row>
     <row r="1174" spans="1:9" x14ac:dyDescent="0.25">
@@ -38055,25 +38041,25 @@
         <v>665</v>
       </c>
       <c r="C1174" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E1174" s="1" t="s">
-        <v>704</v>
+        <v>745</v>
       </c>
       <c r="F1174" s="1" t="s">
-        <v>705</v>
+        <v>746</v>
       </c>
       <c r="G1174" s="10" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H1174" s="2">
-        <v>23981.08</v>
+        <v>0</v>
       </c>
       <c r="I1174" s="3">
-        <v>191809</v>
+        <v>50370.48</v>
       </c>
     </row>
     <row r="1175" spans="1:9" x14ac:dyDescent="0.25">
@@ -38084,25 +38070,25 @@
         <v>665</v>
       </c>
       <c r="C1175" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E1175" s="1" t="s">
-        <v>734</v>
+        <v>849</v>
       </c>
       <c r="F1175" s="1" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="G1175" s="10" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H1175" s="2">
         <v>0</v>
       </c>
       <c r="I1175" s="3">
-        <v>72000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1176" spans="1:9" x14ac:dyDescent="0.25">
@@ -38113,25 +38099,25 @@
         <v>665</v>
       </c>
       <c r="C1176" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D1176" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E1176" s="1" t="s">
-        <v>736</v>
+        <v>668</v>
       </c>
       <c r="F1176" s="1" t="s">
-        <v>737</v>
+        <v>669</v>
       </c>
       <c r="G1176" s="10" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
       <c r="H1176" s="2">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="I1176" s="3">
-        <v>48000</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="1177" spans="1:9" x14ac:dyDescent="0.25">
@@ -38142,25 +38128,25 @@
         <v>665</v>
       </c>
       <c r="C1177" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D1177" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E1177" s="1" t="s">
-        <v>740</v>
+        <v>670</v>
       </c>
       <c r="F1177" s="1" t="s">
-        <v>741</v>
+        <v>671</v>
       </c>
       <c r="G1177" s="10" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="H1177" s="2">
         <v>0</v>
       </c>
       <c r="I1177" s="3">
-        <v>21570</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
@@ -38171,24 +38157,26 @@
         <v>665</v>
       </c>
       <c r="C1178" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1178" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1178" s="1" t="s">
-        <v>960</v>
+        <v>678</v>
       </c>
       <c r="F1178" s="1" t="s">
-        <v>961</v>
+        <v>679</v>
       </c>
       <c r="G1178" s="10" t="s">
-        <v>962</v>
+        <v>914</v>
       </c>
       <c r="H1178" s="2">
-        <v>42</v>
-      </c>
-      <c r="I1178" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="I1178" s="3">
+        <v>48000</v>
+      </c>
     </row>
     <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1179" s="10" t="s">
@@ -38198,19 +38186,19 @@
         <v>665</v>
       </c>
       <c r="C1179" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1179" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1179" s="1" t="s">
-        <v>834</v>
+        <v>688</v>
       </c>
       <c r="F1179" s="1" t="s">
-        <v>835</v>
+        <v>689</v>
       </c>
       <c r="G1179" s="10" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="H1179" s="2">
         <v>0</v>
@@ -38227,24 +38215,26 @@
         <v>665</v>
       </c>
       <c r="C1180" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E1180" s="1" t="s">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="F1180" s="1" t="s">
-        <v>964</v>
+        <v>677</v>
       </c>
       <c r="G1180" s="10" t="s">
-        <v>962</v>
+        <v>913</v>
       </c>
       <c r="H1180" s="2">
-        <v>50.533000000000001</v>
-      </c>
-      <c r="I1180" s="3"/>
+        <v>36000</v>
+      </c>
+      <c r="I1180" s="3">
+        <v>240015</v>
+      </c>
     </row>
     <row r="1181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1181" s="10" t="s">
@@ -38254,25 +38244,25 @@
         <v>665</v>
       </c>
       <c r="C1181" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D1181" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E1181" s="1" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
       <c r="F1181" s="1" t="s">
-        <v>743</v>
+        <v>705</v>
       </c>
       <c r="G1181" s="10" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="H1181" s="2">
-        <v>0</v>
+        <v>47998.44</v>
       </c>
       <c r="I1181" s="3">
-        <v>24000</v>
+        <v>191809</v>
       </c>
     </row>
     <row r="1182" spans="1:9" x14ac:dyDescent="0.25">
@@ -38283,25 +38273,25 @@
         <v>665</v>
       </c>
       <c r="C1182" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D1182" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E1182" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F1182" s="1" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="G1182" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H1182" s="2">
-        <v>71998.69</v>
+        <v>0</v>
       </c>
       <c r="I1182" s="3">
-        <v>212000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="1183" spans="1:9" x14ac:dyDescent="0.25">
@@ -38312,25 +38302,25 @@
         <v>665</v>
       </c>
       <c r="C1183" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E1183" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F1183" s="1" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="G1183" s="10" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="H1183" s="2">
-        <v>23910</v>
+        <v>0</v>
       </c>
       <c r="I1183" s="3">
-        <v>95910</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1184" spans="1:9" x14ac:dyDescent="0.25">
@@ -38341,25 +38331,25 @@
         <v>665</v>
       </c>
       <c r="C1184" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D1184" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E1184" s="1" t="s">
-        <v>688</v>
+        <v>740</v>
       </c>
       <c r="F1184" s="1" t="s">
-        <v>689</v>
+        <v>741</v>
       </c>
       <c r="G1184" s="10" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="H1184" s="2">
         <v>0</v>
       </c>
       <c r="I1184" s="3">
-        <v>24000</v>
+        <v>21570</v>
       </c>
     </row>
     <row r="1185" spans="1:9" x14ac:dyDescent="0.25">
@@ -38370,26 +38360,24 @@
         <v>665</v>
       </c>
       <c r="C1185" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D1185" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E1185" s="1" t="s">
-        <v>698</v>
+        <v>960</v>
       </c>
       <c r="F1185" s="1" t="s">
-        <v>699</v>
+        <v>961</v>
       </c>
       <c r="G1185" s="10" t="s">
-        <v>887</v>
+        <v>962</v>
       </c>
       <c r="H1185" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1185" s="3">
-        <v>48000</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I1185" s="3"/>
     </row>
     <row r="1186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1186" s="10" t="s">
@@ -38399,19 +38387,19 @@
         <v>665</v>
       </c>
       <c r="C1186" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D1186" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E1186" s="1" t="s">
-        <v>702</v>
+        <v>834</v>
       </c>
       <c r="F1186" s="1" t="s">
-        <v>703</v>
+        <v>835</v>
       </c>
       <c r="G1186" s="10" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="H1186" s="2">
         <v>0</v>
@@ -38428,26 +38416,24 @@
         <v>665</v>
       </c>
       <c r="C1187" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E1187" s="1" t="s">
-        <v>706</v>
+        <v>963</v>
       </c>
       <c r="F1187" s="1" t="s">
-        <v>707</v>
+        <v>964</v>
       </c>
       <c r="G1187" s="10" t="s">
-        <v>915</v>
+        <v>962</v>
       </c>
       <c r="H1187" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1187" s="3">
-        <v>72000</v>
-      </c>
+        <v>50.533000000000001</v>
+      </c>
+      <c r="I1187" s="3"/>
     </row>
     <row r="1188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1188" s="10" t="s">
@@ -38457,25 +38443,25 @@
         <v>665</v>
       </c>
       <c r="C1188" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E1188" s="1" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="F1188" s="1" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="G1188" s="10" t="s">
         <v>887</v>
       </c>
       <c r="H1188" s="2">
-        <v>30000</v>
+        <v>23998.92</v>
       </c>
       <c r="I1188" s="3">
-        <v>48000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1189" spans="1:9" x14ac:dyDescent="0.25">
@@ -38486,25 +38472,25 @@
         <v>665</v>
       </c>
       <c r="C1189" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E1189" s="1" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="F1189" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G1189" s="10" t="s">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="H1189" s="2">
-        <v>24000</v>
+        <v>71998.69</v>
       </c>
       <c r="I1189" s="3">
-        <v>72000</v>
+        <v>212000</v>
       </c>
     </row>
     <row r="1190" spans="1:9" x14ac:dyDescent="0.25">
@@ -38515,25 +38501,25 @@
         <v>665</v>
       </c>
       <c r="C1190" s="1" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E1190" s="1" t="s">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="F1190" s="1" t="s">
-        <v>701</v>
+        <v>748</v>
       </c>
       <c r="G1190" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H1190" s="2">
-        <v>0</v>
+        <v>47910</v>
       </c>
       <c r="I1190" s="3">
-        <v>39000</v>
+        <v>95910</v>
       </c>
     </row>
     <row r="1191" spans="1:9" x14ac:dyDescent="0.25">
@@ -38544,25 +38530,25 @@
         <v>665</v>
       </c>
       <c r="C1191" s="1" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D1191" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E1191" s="1" t="s">
-        <v>965</v>
+        <v>688</v>
       </c>
       <c r="F1191" s="1" t="s">
-        <v>966</v>
+        <v>689</v>
       </c>
       <c r="G1191" s="10" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="H1191" s="2">
-        <v>21990</v>
+        <v>0</v>
       </c>
       <c r="I1191" s="3">
-        <v>26990</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
@@ -38570,56 +38556,367 @@
         <v>931</v>
       </c>
       <c r="B1192" s="1" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="C1192" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D1192" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E1192" s="1" t="s">
-        <v>840</v>
+        <v>698</v>
       </c>
       <c r="F1192" s="1" t="s">
-        <v>841</v>
+        <v>699</v>
       </c>
       <c r="G1192" s="10" t="s">
-        <v>916</v>
+        <v>887</v>
       </c>
       <c r="H1192" s="2">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="I1192" s="3">
-        <v>9000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1193" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="B1193" s="10" t="s">
+      <c r="B1193" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1193" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1193" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1193" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="H1193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1193" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1194" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1194" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1194" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F1194" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1194" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1194" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1194" s="3">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1195" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1195" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F1195" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G1195" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="H1195" s="2">
+        <v>54000</v>
+      </c>
+      <c r="I1195" s="3">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1196" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1196" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1196" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1196" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F1196" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G1196" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="H1196" s="2">
+        <v>24000</v>
+      </c>
+      <c r="I1196" s="3">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1197" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1197" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1197" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F1197" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G1197" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1197" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1197" s="3">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1198" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1198" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1198" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1198" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F1198" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="G1198" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="H1198" s="2">
+        <v>21990</v>
+      </c>
+      <c r="I1198" s="3">
+        <v>26990</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1199" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1199" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C1193" s="10" t="s">
+      <c r="C1199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1199" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F1199" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G1199" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1199" s="2">
+        <v>4895.165</v>
+      </c>
+      <c r="I1199" s="3"/>
+    </row>
+    <row r="1200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1200" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1200" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1200" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1200" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1200" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1200" s="2">
+        <v>7342.7470000000003</v>
+      </c>
+      <c r="I1200" s="3"/>
+    </row>
+    <row r="1201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1201" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1201" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1201" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F1201" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G1201" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1201" s="2">
+        <v>3671.3739999999998</v>
+      </c>
+      <c r="I1201" s="3"/>
+    </row>
+    <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1202" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1202" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1202" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F1202" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G1202" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1202" s="2">
+        <v>11014.120999999999</v>
+      </c>
+      <c r="I1202" s="3"/>
+    </row>
+    <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1203" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1203" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1193" s="10" t="s">
+      <c r="D1203" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1193" s="10" t="s">
+      <c r="E1203" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F1203" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1203" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1203" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1203" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1204" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1204" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1204" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1204" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1204" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="F1193" s="10" t="s">
+      <c r="F1204" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="G1193" s="10" t="s">
+      <c r="G1204" s="10" t="s">
         <v>916</v>
       </c>
-      <c r="H1193" s="4">
+      <c r="H1204" s="4">
         <v>0</v>
       </c>
-      <c r="I1193" s="5">
+      <c r="I1204" s="5">
         <v>9000</v>
       </c>
     </row>
@@ -38640,7 +38937,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{919B5C20-04C1-4A12-A369-8F4A589EF030}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AF5EE94-0AE9-40E4-B242-250502A2C892}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.sap.com/cof/excel/application"/>
   </ds:schemaRefs>
